--- a/deuChatbot/research_result/results/bleu_score/bleu_version_1(1500_100).xlsx
+++ b/deuChatbot/research_result/results/bleu_score/bleu_version_1(1500_100).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D204"/>
+  <dimension ref="A1:D305"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6031,61 +6031,3377 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>GPT-4o-mini Average</t>
+          <t>Qwen2.5-7B-instruct</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>디자인조형학과의 실기시험에 대한 정보는 다음과 같습니다:
+ 모집단위 및 실기종목
+- 모집단위: 시각디자인, 산업디자인, 공예디자인
+- 실기종목: 기초디자인, 사고의 전환
+종목별 배점(비율)
+- 배점 : 700점 (70%)
+실기종목별 준비물, 실기주제, 화지크기 및 시험시간
+1. 기초디자인
+- 준비물 : 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제 : 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 잠자리와 저울)
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+- 조건: 제공된 사물과 이미지 이외의 형상은 표현하지 마시오. 제공된 사물은 모두 1회 이상 표현하시오. 제공된 사물의 색상은 변경하지 마시오.
+- 화지크기 : 켄트지 3절
+- 시험시간 : 5시간
+2.사고의 전환
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제 : 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 콜라병과 계절)
+- 주제A: 콜라병, 포카리스웨트(캔), 마스크, 시계, 맥가이버 칼
+- 주제B: 바이러스, 자유, 여행, 계절, 꿈
+- 화지크기: 켄트지 2절
+- 시험시간: 5시간
+이와 같은 정보는 디자인조형학과 실기시험을 준비하는 데 중요한 요소들입니다. 추가적인 정보나 문의사항이 있다면 "https://ipsi.deu.ac.kr/main.do"를 방문하시기 바랍니다.</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>디자인조형학과의 실기시험은 시각디자인, 산업디자인, 공예디자인 세 가지 종목으로 구성되어 있으며, 각 종목별로 배점이 다르게 적용됩니다.
+1. **시각디자인**
+   - **배점**: 700점 중 70% (490점)
+   - **준비물**: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+   - **실기주제**: 주제A와 주제B에서 각각 하나를 선택하여 연결된 주제로 작업합니다. 예시로는 "잠자리와 저울"과 같은 조합이 있을 수 있습니다.
+   - **화지크기**: 켄트지 3절
+   - **시간**: 5시간
+2. **산업디자인**
+   - **배점**: 700점 중 15% (105점)
+   - **준비물**: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+   - **실기주제**: 주제A와 주제B에서 각각 하나를 선택하여 연결된 주제로 작업합니다. 예시로는 "콜라병과 계절"과 같은 조합이 있을 수 있습니다.
+   - **화지크기**: 켄트지 2절
+   - **시간**: 5시간
+3. **공예디자인**
+   - **배점**: 700점 중 15% (105점)
+   - **준비물**: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+   - **실기주제**: 주제A와 주제B에서 각각 하나를 선택하여 연결된 주제로 작업합니다. 예시로는 "콜라병과 계절"과 같은 조합이 있을 수 있습니다.
+   - **화지크기**: 켄트지 2절
+   - **시간**: 5시간
+실기시험은 각 종목별로 준비물과 주제가 다르므로, 지원자는 해당 종목의 특성을 고려하여 적절한 도구와 시간을 관리해야 합니다. 또한, 제공된 사물이나 이미지는 표현하지 않아야 하며, 색상 변경도 금지되어 있습니다.
+이러한 실기시험은 창의성과 디자인 능력을 평가하기 위해 진행되므로, 지원자는 자신의 아이디어와 표현력을 최대한 발휘할 수 있는 준비를 하는 것이 중요합니다.</t>
         </is>
       </c>
       <c r="D202" t="n">
-        <v>0.3506076862523008</v>
+        <v>0.4281384442870678</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Google Gemma-2-9b-it Average</t>
+          <t>Qwen2.5-7B-instruct</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>디자인조형학과의 실기종목, 준비물, 실기주제, 화지크기, 시간에 대한 정보는 다음과 같습니다:
+1.실기종목: 기초디자인
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제: 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 잠자리와 저울)
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+- 조건: 제공된 사물과 이미지 이외의 형상은 표현하지 마시오. 제공된 사물은 모두 1회 이상 표현하시오. 제공된 사물의 색상은 변경하지 마시오.
+- 화지크기: 켄트지 3절
+- 시간: 5시간
+2.실기종목: 사고의 전환
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제: 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 콜라병과 계절)
+- 주제A: 콜라병, 포카리스웨트(캔), 마스크, 시계, 맥가이버 칼
+- 주제B: 바이러스, 자유, 여행, 계절, 꿈
+- 화지크기: 켄트지 2절
+- 시간: 5시간</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>디자인조형학과의 실기종목은 다음과 같습니다:
+- 시각디자인
+- 산업디자인 
+- 공예디자인
+- 기초디자인 (사고의 전환)
+준비물:
+볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구가 필요합니다.
+실기주제:
+각 실기종목에서 주제A와 주제B를 각 1개씩 선정하여 연결된 주제로 당일 추첨됩니다. 예시로는 "잠자리와 저울" 또는 "콜라병과 계절" 등이 있습니다.
+화지크기:
+켄트지3절 크기를 사용합니다.
+시간:
+각 실기종목은 5시간 동안 진행됩니다.
+참고로, 준비물 중에서 제공된 사물과 이미지 이외의 형상은 표현하지 않아야 하며, 제공된 사물의 색상 변경도 금지되어 있습니다.</t>
         </is>
       </c>
       <c r="D203" t="n">
-        <v>0.2769069369168778</v>
+        <v>0.404110953841174</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>경기지도학과 모집종목별 인정대회는 다음과 같습니다:
+배드민턴(남)
+- 한국중·고연맹회장기전국학생선수권대회
+- 대한배드민턴협회장기전국종별배드민턴선수권대회
+- 전국학교대항배드민턴선수권대회
+- 전국종별배드민턴선수권대회
+- 전국연맹종별배드민턴선수권대회
+- 전국체육대회
+- 각종국제대회
+- 주니어국제대회(국가대표팀, 주니어팀 소속으로 출전한 대회만 인정)
+- 광역시·도 협회장기 종별대회
+축구(남)
+- 춘계한국고등학교축구연맹전
+- 추계한국고등학교축구연맹전
+- 대한축구협회장배전국고등학교축구대회
+- 문화체육관광부장관기전국고등학교축구대회
+- 문화체육관광부장관배전국고등학교축구대회
+- 백운기전국고등학교축구대회
+- 전국고등축구리그(권역별고교축구리그)
+- 전국고등축구리그왕중왕전
+- 무학기전국고등학교축구대회
+- 청룡기전국고등학교축구대회
+- 백록기전국고등학교축구대회
+- 금강대기전국고등학교축구대회
+- 대통령금배전국고등학교축구대회
+- 금석배전국고등학생축구대회
+- 부산MBC전국고등학생축구대회
+- K리그 U18 챔피언십
+- K리그 U18 챔피언십왕중왕전</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 경기지도학과 모집종목별 인정대회는 다음과 같습니다:
+배드민턴(남):
+- 한국중·고연맹회장기전국학생선수권대회
+- 대한배드민턴협회장기전국종별배드민턴선수권대회
+- 전국학교대항배드민턴선수권대회
+- 전국종별배드민턴선수권대회
+- 전국연맹종별배드민턴선수권대회
+- 전국체육대회
+- 각종국제대회 (국가대표팀, 주니어팀 소속으로 출전한 대회만 인정)
+- 광역시·도 협회장기 종별대회
+축구(남):
+- 춘계한국고등학교축구연맹전
+- 추계한국고등학교축구연맹전
+- 대한축구협회장배전국고등학교축구대회
+- 문화체육관광부장관기전국고등학교축구대회
+- 문화체육관광부장관배전국고등학교축구대회
+- 백운기전국고등학교축구대회
+- 전국고등축구리그(권역별고교축구리그)
+- 전국고등축구리그왕중왕전
+- 무학기전국고등학교축구대회
+- 청룡기전국고등학교축구대회
+- 백록기전국고등학교축구대회
+- 금강대기전국고등학교축구대회
+- 대통령금배전국고등학교축구대회
+- 금석배전국고등학생축구대회
+- 부산MBC전국고등학생축구대회
+- K리그 U18 챔피언십
+- K리그 U18 챔피언십왕중왕전</t>
+        </is>
+      </c>
+      <c r="D204" t="n">
+        <v>0.9766225731457064</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 기초디자인 실기시험 주제는 다음과 같습니다:
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+시험 당일에는 주제A와 주제B에서 각각 1개씩 선정하여 연결된 주제를 추첨하게 됩니다. 예시로는 "잠자리와 저울"이 있습니다.</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 디자인조형학과의 기초디자인 실기시험에서 사용되는 주제들은 다음과 같습니다:
+1. 주제A (예시)
+   - 잠자리
+   - 무궁화
+   - 피망
+   - 고양이
+   - 양파
+   - 달팽이
+   - 오렌지
+2. 주제B (예시)
+   - 악보
+   - 줄자
+   - 스카치테이프
+   - 자물쇠
+   - 반코팅장갑
+   - 저울
+   - 얼음
+당신이 제공한 정보에 따르면, 실제 시험에서는 당일 추첨을 통해 주제A와 주제B 각각에서 1개씩 선택하여 연결된 주제를 그려야 합니다.</t>
+        </is>
+      </c>
+      <c r="D205" t="n">
+        <v>0.4275903817967672</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>아니요. 학생부 교과 전형에서는 출결 점수가 반영되지 않습니다.</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>학생부교과 전형에서는 출결 점수가 직접적으로 반영되지 않습니다. 하지만, 나군 실기/실적(경기실적우수자전형)에서는 출결이 다음과 같이 반영됩니다:
+- 결석일수 / 반영점수
+  - 0~2일 : 120점
+  - 3~6일 : 90점
+  - 7~12일 : 60점
+  - 13~20일 : 30점
+  - 21일이상 : 0점
+미인정, 사고, 무단의 지각/조퇴/결과 3회는 결석 1회로 간주됩니다.
+따라서 학생부교과 전형에서 직접적인 출결 점수 반영은 없지만, 실기/실적 전형에서는 출결이 성적에 영향을 미칠 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D206" t="n">
+        <v>0.0003374532371179002</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>인문사회과학대학의 국어국문학과에서 가군 일반학생 전형으로 17명을 모집합니다.</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>17명을 모집합니다. 
+인문사회과학대학 / 인문사회 / 국어국문학과 - 교직 / 17 이라는 항목에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D207" t="n">
+        <v>0.3928216783350723</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 인문사회과학대학 영어영문학과의 경우, 다군 일반학생 전형을 통해 총 28명의 신입생을 선발합니다.</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>28명을 모집합니다.
+인문사회과학대학 / 인문사회 / 영어영문학과 - 교직 / 28 /
+이 정보는 "다군 수능(일반학생전형) 모집단위 및 모집인원" 표에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D208" t="n">
+        <v>0.2353595574296185</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 의료보건생활대학 간호학과의 경우, 나군 일반학생 전형을 통해 총 22명의 신입생을 선발합니다.</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 의료보건생활대학 간호학과의 나군 일반학생 전형 모집 인원은 110명입니다.</t>
+        </is>
+      </c>
+      <c r="D209" t="n">
+        <v>0.533334865391997</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>수능 영어영역 등급에 따른 점수는 다음과 같습니다:
+- 1등급: 139점
+- 2등급: 131점
+- 3등급: 123점
+- 4등급: 115점
+- 5등급: 107점
+- 6등급: 99점
+- 7등급: 91점
+- 8등급: 83점
+- 9등급: 75점</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>以下是按照韩语编写的回答：
+수능 영어 등급별로 다음과 같은 점수가 부여됩니다:
+1등급: 139점  
+2등급: 131점  
+3등급: 123점  
+4등급: 115점  
+5등급: 107점  
+6등급: 99점  
+7등급: 91점  
+8등급: 83점  
+9등급: 75점  
+이 점수들은 등급별로 일정하게 매겨져 있으며, 영어 수능 시험에서 받은 등급에 따라 해당 점수가 부여됩니다.</t>
+        </is>
+      </c>
+      <c r="D210" t="n">
+        <v>0.5499464925716182</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>아니요, 예술고 학생은 나군 학생부교과 농어촌학생전형으로 지원할 수 없습니다. 지원자격에 따르면 농어촌지역 또는 도서·벽지에 소재한 특수목적고 중 과학고, 국제고, 외국어고, 체육고, 예술고 출신자는 지원할 수 없습니다.</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 예술고 학생은 나군 학생부교과(농어촌학생전형)로 지원할 수 없습니다. 
+[표 추가내용]에서 다음과 같이 명시되어 있습니다:
+"의료·보건·생활, 공과, ICT융합공과대학 모집단위 / 수학(미적분 or 기하)응시자는 수학 취득 표준점수의 10%를 가산점으로 부여/"
+"예술디자인체육대학 모집단위(패션디자인학과 제외) / 국어(화법과작문 or 언어와매체) / 수학(확률과통계 or 미적분 or 기하) / 영어 / 탐구(사회탐구 or 과학탐구 or 직업탐구 중 영역 관계없이 2개 과목) / 상위 3개 영역 각 33.33%/"
+"예술고 출신자는 지원할 수 없습니다."
+따라서 예술고 학생은 예외적으로 지원이 제한되어 있으며, 이 전형에서는 예술고 출신자를 지원자 범위에서 제외하고 있습니다.</t>
+        </is>
+      </c>
+      <c r="D211" t="n">
+        <v>0.07245328831445449</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>레저스포츠학과 여자 제자리 멀리뛰기 4등급 기록과 배점은 다음과 같습니다:
+- 기록: 218~221 cm
+- 배점: 275점</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>4등급의 제자리 멀리뛰기 기록은 218~221cm이며, 이에 대한 배점은 275점입니다.
+따라서 레저스포츠학과 여자 제자리 멀리뛰기 4등급의 기록과 배점은 다음과 같습니다:
+- 기록: 218~221cm
+- 배점: 275점</t>
+        </is>
+      </c>
+      <c r="D212" t="n">
+        <v>0.4392214748974107</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>경기지도학과의 출결 반영 비율은 12%입니다.</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 동의대학교 경기지도학과에서 나군 실기/실적(경기실적우수자전형)의 전형요소 중 출결 반영 비율은 12%입니다.
+이 정보는 다음과 같은 표에서 얻었습니다:
+[표 내용]
+```
+경기지도학과 / { 18% /  12% /  70% / } /
+```
+따라서, 경기지도학과의 출결 반영 비율은 12%입니다.</t>
+        </is>
+      </c>
+      <c r="D213" t="n">
+        <v>0.002820142842530105</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군에서 물리치료학과는 4명을 모집합니다.</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>4명을 모집합니다.
+이 정보는 "가군 수능(일반학생전형), 실기/실적(일반학생전형) 모집단위 및 모집인원" 표에서 물리치료학과의 모집인원으로 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D214" t="n">
+        <v>0.1216350875243814</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>2024. 01. 17.(수) 입니다.</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>2024학년도 나군 실기/실적 전형에서 디자인조형학과(시각디자인, 산업디자인, 공예디자인)의 실기고사는 2024년 1월 17일(수)에 실시됩니다.
+참고로, 해당 일정은 다음과 같습니다:
+- **실기고사 일정**: 2024. 01. 17.(수)
+- **대기실 및 입실시간 안내**: 2024. 01. 12.(금) 14:00 이후, 입학안내 홈페이지에서 조회 가능합니다.
+이 일정을 참고하여 준비하시길 바랍니다.</t>
+        </is>
+      </c>
+      <c r="D215" t="n">
+        <v>5.006648553196526e-05</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>수능 최저 학력 기준은 없습니다.</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보에서 동의대학교 2024학년도 응용화학과의 수능 최저기준에 대한 직접적인 정보를 찾을 수 없습니다. 
+다만, 다른 관련 정보들을 통해 추론할 수 있습니다:
+1. "수능 반영영역 및 가산점" 표에서 응용화학과는 국어(25%), 수학(25%) 그리고 영어(25%) 등급이 반영됩니다.
+2. "수능 전형성적 산출방법" 표에서는 각 모집단위별 수능 성적의 반영 방법이 나열되어 있습니다. 응용화학과도 해당 표에 포함될 것으로 예상됩니다.
+3. "수능(일반학생전형) 최종등록자" 표에서 응용화학과는 31명 모집 인원으로, 평균 수능 점수가 제공되어 있습니다: 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합 { 평균 / 표준 편차 } : 22 / 3.60
+이러한 정보들을 종합하면, 응용화학과의 수능 최저기준은 대략적으로 다음과 같을 것으로 추정할 수 있습니다:
+- 국어: 85점 이상 (표준 변환 점수 기준으로 평균이 22이고 표준 편차가 3.60이라면)
+- 수학: 90점 이상
+- 탐구 영역(2개): 총 140점 이상
+하지만 이는 추정치이며, 정확한 최저기준은 동의대학교 입학처에서 공식 발표해야 합니다. 따라서 가장 정확한 정보를 얻으려면 동의대학교 입학 홈페이지나 입학처에 직접 문의하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D216" t="n">
+        <v>3.12459347163777e-17</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도에 신설된 학과는 다음과 같습니다:
+1. 심리학과
+2. 스마트항만물류학과
+3. 창업투자경영학과
+4. 라이프융합학부 (스타트업창업투자학, 뷰티비즈니스학, 라이프생활문화학)
+5. 경기지도학과</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 신설된 학과로 확인된 것은 다음과 같습니다:
+1. 미래융합대학 / 라이프융합학부 - 신설 (스타트업창업투자학, 뷰티비즈니스학, 라이프생활문화학)
+2. 미래융합대학 / 부동산자산경역학부 - (부동산투자학, 부동산개발경영학)
+또한 일부 학과의 교직 과정도 신설되었는데, 이는 표에서 다음과 같이 확인할 수 있습니다:
+1. 공과대학 / 건축공학과 - 교직
+2. 공과대학 / 도시공학과 - 교직
+3. 공과대학 / 토목공학과 - 교직
+4. 공과대학 / 환경공학과 - 교직
+5. 공과대학 / 화학공학과 - 교직 - 공학
+6. 공과대학 / 인간공학과 - 교직
+7. 공과대학 / 산업경영빅데이터공학과 - 교직
+8. 공과대학 / 로봇자동화공학과 - 교직
+9. 인문사회과학대학 / 심리학과 - 신설
+10. 상경대학 / 경영학과 - 교직
+11. 상경대학 / 회계학과 - 교직
+이 외에도 일부 학과에서 특정 과정이나 분야가 신설되었음을 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D217" t="n">
+        <v>0.05458567227921809</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 나군의 학생부종합(성인학습자전형)의 전형요소 반영비율은 서류 70%, 면접 30%입니다.</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 나군의 학생부종합(성인학습자전형)의 전형요소 반영비율은 다음과 같습니다:
+- 서류 : 70%
+- 면접 : 30%
+이 비율은 성인학습자전형 모두에 적용됩니다.</t>
+        </is>
+      </c>
+      <c r="D218" t="n">
+        <v>0.4707355153643917</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>동의대학교에서는 다음 모집단위에서 수능 가산점을 적용합니다:
+- 의료·보건·생활대학
+- 공과대학
+- ICT융합공과대학
+이들 모집단위에서 수학(미적분 또는 기하)을 응시한 경우, 수학 취득 표준점수의 10%를 가산점으로 부여합니다.</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 동의대학교에서는 특정 학과에서 수능 가산점을 적용합니다. 특히, 한의예과는 수학(미적분/기하) 응시자에게 수학 취득 표준점수의 10% 가산점을 부여하고 있습니다.
+상세 내용은 다음과 같습니다:
+- **한의예과**:
+  - 수학(미적분 또는 기하) 응시자: 수학 취득 표준점수의 10% 가산점
+기타 학과에서는 일반적으로 수능 성적이 반영되지만, 추가적인 가산점은 적용되지 않습니다.</t>
+        </is>
+      </c>
+      <c r="D219" t="n">
+        <v>0.3200493537877701</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>동의대학교의 2024학년도 가군 수능(일반학생전형)에서는 수능 성적을 100% 반영합니다. 자세한 수능 성적 반영 방법은 '38페이지 Ⅴ. 수능성적 반영방법'을 참조하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군에서는 수능 성적이 전형 요소 중 100%로 반영됩니다. 
+가군 수능(일반학생전형), 실기/실적(일반학생전형) 전형요소 반영비율 표에 따르면, 모든 모집단위에서 수능 성적만을 기준으로 학생들을 평가합니다 (레저스포츠학과와 태권도학과를 제외한 경우).
+수능성적 반영 방법은 '38페이지 Ⅴ. 수능성적 반영방법'을 참조할 수 있습니다.
+따라서 지원자는 해당 학교의 수능 성적을 잘 준비하고, 특히 국어, 수학, 영어 등 주요 과목의 성적을 높이는 것이 중요합니다.</t>
+        </is>
+      </c>
+      <c r="D220" t="n">
+        <v>0.1506325691701677</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군 실기고사는 2024년 1월 16일(화)에 진행됩니다.</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군 실기고사는 다음과 같이 일정이 정해져 있습니다:
+- **레저스포츠학과, 태권도학과**:
+  - 날짜: 2024. 01. 16.(화)
+  - 대기실 및 입실시간 안내는 2024. 01. 12.(금) 14:00 이후에 입학안내 홈페이지에서 조회 가능합니다.
+- **디자인조형학과 (시각디자인, 산업디자인, 공예디자인), 체육학과**:
+  - 날짜: 2024. 01. 17.(수)
+  - 대기실 및 입실시간 안내는 2024. 01. 12.(금) 14:00 이후에 입학안내 홈페이지에서 조회 가능합니다.
+이 일정을 참고하여 준비하시면 좋겠습니다.</t>
+        </is>
+      </c>
+      <c r="D221" t="n">
+        <v>0.001584956388227406</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 나군 수능(일반학생전형) 전형에서는 한의예과, 디자인조형학과와 체육학과, 경기지도학과가 제외됩니다.</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 나군 수능(일반학생전형)에서는 한의예과, 디자인조형학과, 체육학과, 경기지도학과가 실기/실적 위주로 평가받습니다. 이들 모집단위는 전형요소 반영비율에서 수능 비중이 0%이며, 대신 실기나 실적 비중이 높게 설정되어 있습니다.
+따라서, 디자인조형학과와 체육학과는 실기/실적 위주로 평가받으며, 나머지 한의예과와 경기지도학과도 마찬가지입니다. 이들 모집단위에서 수능 성적이 고려되지 않고, 대신 실기나 실적 기준이 주요하게 반영됩니다.
+참조할 수 있는 표는 다음과 같습니다:
+[표 제목 : 전형요소 반영비율]
+```
+실기/실적 위주 / 나군 수능(일반학생전형) 디자인조형학과, 체육학과 / 24 / 일괄 합산 / { 0 /  0 /  0 /  70 /  30 / } / 수능최저기준 없음 /
+실기/실적 위주 / 나군 실기/실적(일반학생전형) 경기지도학과 / 7 / 일괄 합산 / { 18 /  12 /  70 /  0 /  0 /  0 / } / 수능최저기준 없음 /
+```
+위 표에서 디자인조형학과와 체육학과는 각각 실기/실적 비중이 30%이며, 경기지도학과는 실기 비중이 70%로 높게 설정되어 있습니다.</t>
+        </is>
+      </c>
+      <c r="D222" t="n">
+        <v>0.001038934273446498</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2024학년도 동의대의 다군 전형에서는 수능 최저기준이 적용되지 않습니다. </t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대의 다군 전형에서 수능 최저기준은 적용되지 않습니다. 이는 표에서 "수능최저기준 없음"으로 명시되어 있습니다.
+관련 정보:
+- [표 제목] : 전형요소 반영비율
+- [모집단위] : 다군 수능(일반학생전형) 전 모집단위
+- [전형요소 반영비율] : { 0 /  0 /  0 /  0 /  0 /  100 / }
+- [수능최저기준] : 수능최저기준 없음
+따라서, 다군 전형의 경우 수능 최저기준이 적용되지 않습니다.</t>
+        </is>
+      </c>
+      <c r="D223" t="n">
+        <v>0.006581278026265331</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대에서 학부에서 학과로 분리된 학과는 다음과 같습니다:
+1. 보육가정상담학과 → 아동학과
+2. 경제금융보험학과 → 금융경영학과
+3. 정보경영학부 → 경영정보학과, e비즈니스학과
+4. 부동산금융자산경영학과 → 부동산자산경영학부(부동산투자학, 부동산개발경영학)
+5. 기계자동차로봇부품공학부 → 기계공학과, 로봇자동화공학과, 자동차공학과
+6. 신소재공학부(금속소재공학, 전기전자소재공학, 고분자소재공학) → 신소재공학과, 고분자나노공학과
+7. 건설공학부(건축학(5년제), 건축공학, 토목공학, 도시공학) → 건축학과(5년제), 건축공학과, 토목공학과, 도시공학과
+8. 화학환경공학부(화학공학, 환경공학, 응용화학) → 화학공학과, 환경공학과, 응용화학과
+9. 바이오응용공학부(의생명공학, 바이오의약공학, 식품공학) → 의생명공학과, 바이오의약공학과, 식품공학과
+10. 디자인공학부(인간시스템디자인공학, 제품디자인공학) → 인간공학과, 제품디자인공학과
+11. 산업융합시스템공학부(산업ICT기술공학, 산업경영빅데이터공학) → 산업경영빅데이터공학과
+12. 창의소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학) → 소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학)
+13. 전기전자통신공학부(전기공학, 전자공학, 정보통신공학) → 전기공학과, 전자공학과
+14. 음악학과(성악, 피아노, 관현타악, 실용음악뮤지컬, 뉴미디어작곡) → 음악학과(클래식, 실용음악, 뉴미디어작곡)</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서는 다음과 같은 학과가 학부에서 학과로 분리되었습니다:
+1. 보육·가정상담학과 → 아동학과
+2. 경제금융보험학과 → 금융경영학과
+3. 정보경영학부(경영정보학, e비즈니스학) → 경영정보학과, e비즈니스학과
+4. 부동산금융·자산경영학과 → 부동산자산경영학부(부동산투자학, 부동산개발경영학)
+5. 기계자동차로봇부품공학부(기계공학, 로봇·자동화공학, 자동차공학) → 기계공학과, 로봇자동화공학과, 자동차공학과
+6. 신소재공학부(금속소재공학, 전기전자소재공학, 고분자소재공학) → 신소재공학과, 고분자나노공학과
+7. 건설공학부(건축학(5년제), 건축공학, 토목공학, 도시공학) → 건축학과(5년제), 건축공학과, 토목공학과, 도시공학과
+8. 화학환경공학부(화학공학, 환경공학, 응용화학) → 화학공학과, 환경공학과, 응용화학과
+9. 바이오응용공학부(의생명공학, 바이오의약공학, 식품공학) → 의생명공학과, 바이오의약공학과, 식품공학과
+10. 디자인공학부(인간·시스템디자인공학, 제품디자인공학) → 인간공학과, 제품디자인공학과
+11. 산업융합시스템공학부(산업ICT기술공학, 산업경영빅데이터공학) → 산업경영빅데이터공학과
+12. 창의소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학) → 소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학)
+13. 전기전자통신공학부(전기공학, 전자공학, 정보통신공학) → 전기공학과, 전자공학과
+14. 음악학과(성악, 피아노, 관현타악, 실용음악·뮤지컬, 뉴미디어작곡) → 음악학과(클래식, 실용음악, 뉴미디어작곡)
+이러한 분리로 인해 학부의 구조가 변경되었으며, 각 학과는 독립된 전공으로 운영될 것입니다.</t>
+        </is>
+      </c>
+      <c r="D224" t="n">
+        <v>0.8641940236759097</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 전형일정에서 원서접수 마감일은 2024년 1월 6일(토) 18시입니다.</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 전형일정에 따르면, 원서접수 마감일은 **2024년 1월 6일(토) 18시**까지입니다. 
+원서접수 사이트 접속이 차단되므로, 사전에 미리 접속하여 지원 내용 입력 및 전형료 결제를 완료해야 합니다. 또한, 마감 시한까지 원서접수를 완료하지 못한 경우 지원자 본인의 책임이 있으므로 유의하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="D225" t="n">
+        <v>0.08683348260151795</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t xml:space="preserve">동의대 2024학년도에 전형 요소 변화가 있는 전형은 다음과 같습니다:
+1.  학생부종합(성인학습자전형):
+ - 2023학년도: 특성화고 등을 졸업한 재직자
+ - 2024학년도: 고교 졸업(예정)자 또는 법령에 의한 동등 학력 소지자로서 만 30세 이상인 자
+2.  학생부종합(조기취업형계약학과전형):
+  - 2023학년도: 서류(학생부) 70% + 면접 30%
+  - 2024학년도: 서류(학생부) 60% + 면접 40%
+3. 실기/실적(경기실적우수자전형):
+  - 2023학년도: 학생부교과(출결 포함) 30% + 서류(실적) 70%
+  - 2024학년도: 학생부교과 18% + 출결 12% + 서류(실적) 70%
+4. 반영학기(학생부교과, 실기/실적 위주전형):
+ - 2023학년도: 
+  - 고교 졸업예정자 : 1학년 1학기~3학년 1학기
+  - 고교 졸업자 : 1학년 1학기~3학년 2학기
+ - 2024학년도: 
+  -고교 졸업(예정)자 : 1학년 1학기~3학년 1학기
+5. 반영과목(학생부교과, 실기/실적 위주전형):
+ - 2023학년도:
+  -전 모집단위(한의예과 제외):
+   -국어, 수학, 영어교과 중 석차등급 상위 8과목
+   -8과목을 제외한 국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 중 석차등급 상위 4과목
+   -반영교과 중 진로선택과목 최대 2개 이내 반영 가능
+   -진로선택과목 성적반영: A: 2등급, B: 4등급, C: 6등급
+  -한의예과:
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학, 한문교과 전과목
+   -진로선택과목: 미반영
+- 2024학년도:
+  -전 모집단위(한의예과 제외):
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 중 석차등급 상위 12과목
+   -반영교과 중 진로선택과목 최대 2개 이내 반영 가능
+   -진로선택과목 성적반영: A: 1등급, B: 3등급, C: 5등급
+  -한의예과:
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학, 한문교과 전과목
+   -진로선택과목: 반영교과 전과목 반영
+</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 주요 변경된 전형 요소는 다음과 같습니다:
+1. **수능 위주 전형 (가군, 나군, 다군)**:
+   - 모든 수능 위주의 전형에서는 수능 최저기준이 제시되지 않았습니다.
+2. **실기/실적 위주 전형**:
+   - 실기/실적 위주의 전형에서도 수능 최저기준이 제시되지 않았습니다.
+3. **학생부교과 전형 (나군)**:
+   - 학생부교과 전형에서는 학생부 교과 성적이 100% 반영되었습니다.
+   - 다른 전형들과 달리 출결, 서류, 면접, 실기 요소가 반영되지 않았습니다.
+4. **학생부종합 전형 (나군)**:
+   - 재직자전형에서는 학생부 교과 성적이 70%와 면접이 30%로 반영되었습니다.
+   - 조기취업형 계약학과 전형에서도 학생부 교과 성적이 60%와 출결이 40%로 반영되었습니다.
+이러한 변화는 각 전형별로 다르게 적용되므로, 지원자들은 해당 전형의 특징을 잘 이해하고 준비해야 합니다.</t>
+        </is>
+      </c>
+      <c r="D226" t="n">
+        <v>0.2090603517865264</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군 실기/실적 전형에서 실기 비중은 70%입니다.</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군 실기/실적 전형에서 실기 비중은 70%입니다.
+이 정보는 다음과 같은 표에서 얻었습니다:
+[표 내용]
+```
+가군 실기/실적(일반학생전형) / 레저스포츠학과, 태권도학과 / { 30% /  70% / } /
+```
+따라서 가군 실기/실적 전형에서 수능은 30%, 실기는 70%의 비중을 차지합니다.</t>
+        </is>
+      </c>
+      <c r="D227" t="n">
+        <v>0.02498676615823264</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 신설된 라이프융합학부의 세부 전공은 다음과 같이 구성되어 있습니다:
+ - 스타트업창업투자학
+ - 뷰티비즈니스학
+ - 라이프생활문화학</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 신설된 '라이프융합학부'는 다음과 같은 세부 전공으로 구성되어 있습니다:
+- 스타트업창업투자학
+- 뷰티비즈니스학
+- 라이프생활문화학
+这三个专业共同构成了新设立的「生活融合学部」。</t>
+        </is>
+      </c>
+      <c r="D228" t="n">
+        <v>0.6139643345986765</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군에서 실기고사에 참여해야 하는 학과는 다음과 같습니다:
+1. 체육학과
+2. 레저스포츠학과</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군에서 실기고사를 진행하는 학과는 다음과 같습니다:
+1. 레저스포츠학과
+2. 태권도학과
+이 두 학과는 가군 수능(일반학생전형)에서 실기고사가 요구됩니다.</t>
+        </is>
+      </c>
+      <c r="D229" t="n">
+        <v>0.4381072124267163</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t xml:space="preserve">동의대 2024학년도 실기/실적 위주 전형 지원 가능한 학과는 다음과 같습니다:
+1. 레저스포츠학과
+2. 태권도학과
+3. 디자인조형학과
+4. 체육학과
+5. 경기지도학과 </t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 실기/실적 위주 전형인 "실기/실적(일반학생전형)"은 다음과 같은 학과에서 시행됩니다:
+1. 가군:
+   - 레저스포츠학과
+   - 태권도학과
+2. 나군:
+   - 디자인조형학과 (시각디자인, 산업디자인, 공예디자인)
+   - 체육학과
+3. 다군: 
+   - 경기지도학과
+따라서 실기/실적 위주 전형인 "실기/실적(일반학생전형)"을 지원하려면 위의 학과 중 하나를 선택해야 합니다.
+참고로, 이 외에도 다른 전형 유형도 존재하며 각각의 모집단위와 전형요소 반영비율이 다릅니다. 자세한 내용은 동의대학교 입학처 웹사이트나 관련 안내서를 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="D230" t="n">
+        <v>0.07571059404559587</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>동의대학교의 라이프융합학부는 신설된 학부로, 다음과 같은 전공을 제공합니다:
+ - 스타트업창업투자학
+ - 뷰티비즈니스학
+ - 라이프생활문화학</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>동의대학교의 라이프융합학부에서는 다음과 같은 전공을 제공합니다:
+1. 스타트업 창업투자학
+2. 뷰티 비즈니스학
+3. 라이프 생활문화학
+이 학부는 신설된 프로그램으로, 다양한 삶의 질 향상을 위한 교육과 연구를 목표로 하고 있습니다.</t>
+        </is>
+      </c>
+      <c r="D231" t="n">
+        <v>0.4749991991249777</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>특수목적고등학교 출신 학생은 일반학생전형으로 지원할 수 있습니다. 다만, 농어촌학생전형의 경우 마이스터고를 제외한 특수목적고등학교 출신자는 지원할 수 없습니다. 일반학생전형에 대한 자세한 정보는 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>你不属于农村或偏远地区，而且你是特殊目的高中毕业生。根据提供的信息，你不符合农林中学学生成员资格的要求。因此，你不能通过农林中学学生专项招生计划申请东义大学的一般学生招生。
+但是，你可以尝试以下几种方式来申请：
+1. **普通高考（一般学生招生）**：如果你符合普通高考的报名条件，可以参加并通过普通高考申请东义大学。
+2. **其他特殊招生计划**：查看是否有适合你的其他特殊招生计划，例如艺术、体育等特长生招生。
+建议你访问东义大学官方网站或联系招生办公室获取最新的招生信息和具体要求。</t>
+        </is>
+      </c>
+      <c r="D232" t="n">
+        <v>5.672839048031745e-79</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대 나군 전형에서 가장 많이 모집하는 학과는 인문사회과학대학의 중어중국학과와 공과대학 신소재공학과로, 나군 일반학생 전형에서 32명을 모집합니다.</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 나군 전형에서 가장 많이 모집하는 학과를 파악하기 위해서는 각 학과별로 정원 내 모집인원, &lt;나&gt;군 일반학생전형, &lt;나&gt;군 농어촌학생전형, &lt;나&gt;군 평생학습자전형, &lt;나&gt;군 성인학습자(정원내/외)전형, &lt;나&gt;군 재직자전형 등의 모집인원을 합산한 값을 확인해야 합니다.
+제공된 표에서 나군 전형의 모집단위 및 모집인원은 다음과 같이 나타납니다:
+- 미래융합대학 인문사회 계열 라이프융합학부 - 신설 (스타트업창업투자학, 뷰티비즈니스학, 라이프생활문화학): 학생부종합(평생학습자전형) 11명, 학생부종합(성인학습자(정원외)전형) 23명, 학생부종합(성인학습자(정원내)전형) 7명, 학생부종합(재직자전형) 7명
+- 미래융합대학 인문사회 계열 부동산자산경영학부 (부동산투자학, 부동산개발경영학): 학생부종합(성인학습자(정원외)전형) 17명
+이 중에서 가장 많은 모집인원을 보이는 학과는 **미래융합대학 인문사회 계열 라이프융합학부 - 신설 (스타트업창업투자학, 뷰티비즈니스학, 라이프생활문화학)**로 31명(11 + 23)을 모집하고 있습니다.
+따라서, 2024학년도 동의대학교 나군 전형에서 가장 많이 모집하는 학과는 **미래융합대학 인문사회 계열 라이프융합학부 - 신설 (스타트업창업투자학, 뷰티비즈니스학, 라이프생활문화학)**입니다.</t>
+        </is>
+      </c>
+      <c r="D233" t="n">
+        <v>0.0007735463971814984</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>마이스터고를 제외한 특수목적고등학교 출신자는 동의대 학생부교과 농어촌학생전형으로 지원할 수 없습니다.  지원 자격에 따르면, 농어촌지역 또는 도서·벽지에 소재한 특수목적고 중 과학고, 국제고, 외국어고, 체육고, 예술고 출신자는 지원할 수 없습니다.</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>你不属于农村或偏远地区，因此不符合东义大学学生部课程（针对农村学生的招生计划）的申请资格。该计划专门面向在农村或偏远地区的中学和高中就读并居住的学生。
+如果你有其他问题或者需要进一步的帮助，请告诉我！</t>
+        </is>
+      </c>
+      <c r="D234" t="n">
+        <v>5.991241072703885e-232</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보로는 2024학년도 소프트웨어공학부의 합격자 평균 성적에 대한 데이터가 없습니다. 현재 있는 정보는 다음과 같습니다:
+- 소프트웨어공학과는 공과대학 공학 계열에 속해 있습니다.
+- 나군 학생부종합전형의 경우, 전형요소 반영비율이 70% 서류 / 30% 면접으로 되어 있지만, 이는 특정 학과의 성적 평균을 의미하지 않습니다.
+2024학년도 소프트웨어공학부 합격자들의 평균 성적에 대한 정보를 찾으시려면, 동의대학교 입학처 웹사이트나 관련 공지사항을 확인해 보시는 것이 가장 정확할 것입니다. 해당 사이트에서는 각 학과별 최초합격자 및 충원 합격자의 성적 분포와 같은 자료가 공개될 수 있습니다.
+만약 추가 정보가 필요하시다면, 동의대학교 입학처에 직접 문의해 보시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D235" t="n">
+        <v>0.05930440832733954</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>2024학년도 소프트웨어공학부의 정확한 최초합격자 평균 성적 정보가 제공된 표에서 확인할 수 없습니다. 현재 제공된 데이터는 공과대학의 전반적인 모집단위별 평균 성적을 나타내고 있으며, 특정 학부(예: 소프트웨어공학부)에 대한 정보는 포함되어 있지 않습니다.
+제공된 "수능(일반학생전형) 최초합격자" 표에서는 단과대학 및 모집단위별로 평균 성적을 제공하고 있지만, 소프트웨어공학부에 대한 데이터가 없습니다. 
+만약 특정 학부의 최초합격자 평균 성적을 알고 싶다면, 해당 학부의 모집단위를 확인한 후 표에서 해당 정보를 찾아보시거나, 대학 입학처나 관련 홈페이지를 참조해 보시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D236" t="n">
+        <v>0.09394969247609897</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>합격자 발표 일정은 다음과 같습니다:
+ - 최초 합격자 발표: 2024년 2월 2일(금) 14:00
+ - 충원 합격자 1차 발표: 2024년 2월 14일(수) 09:00
+ - 충원 합격자 2차 발표: 2024년 2월 15일(목) 09:00
+ - 충원 합격자 3차 이후 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지
+ 모든 발표는 홈페이지를 통해 개별 조회해야 합니다.</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 최초합격자부터 2차 충원합격자 발표까지는 홈페이지를 통해 실시하며, 모든 지원자는 전형 일정에 명시된 합격자 발표일에 합격 여부를 반드시 조회해야 합니다.
+또한, 3차 이후 충원합격자 발표 과정에서 전화 연락 두절(3회 통화)로 인해 충원합격 통보가 어려운 경우 충원합격이 되었으나 등록 의사가 없는 등록 포기자로 간주하므로, 2024년 2월 15일(목)부터 2024년 2월 20일(화)까지 전화 연락을 받지 못하는 일이 없도록 유의해야 합니다.
+따라서 정확한 합격자 발표 일정은 해당 대학의 공식 홈페이지를 통해 확인하시거나, 제공된 문구에 따라 해당 기간 내에 합격 여부를 확인해 주세요.</t>
+        </is>
+      </c>
+      <c r="D237" t="n">
+        <v>0.3194462102285815</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>나군 평생학습자전형, 성인학습자(정원내)전형, 성인학습자(정원외)전형, 재직자전형, 조기취업형계약학과전형의 면접고사 일정은 2024. 01. 20.(토)입니다.</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>2024년 2월 7일부터 13일까지 합격자 발표 및 등록금 납부를 진행합니다. 최초합격자는 2024년 2월 2일 금요일 오후 2시에 홈페이지에서 발표됩니다.
+면접은 이 기간 내에 이루어집니다. 면접 일정과 관련된 자세한 정보는 입학안내 홈페이지를 통해 확인하실 수 있습니다. 대기실 및 입실 시간 안내는 2024년 1월 12일 금요일 오후 2시 이후, 입학안내 홈페이지에서 조회 가능합니다.
+따라서 면접을 보러 가려면 2024년 1월 16일 화요일부터 시작되는 실기고사 일정과 함께 준비하시면 좋습니다. 자세한 일정은 공식 입학 안내 사이트를 확인해보세요.</t>
+        </is>
+      </c>
+      <c r="D238" t="n">
+        <v>0.0368596629765241</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>동의대 한의예과의 최저학력 기준이 없습니다.</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 한의예과의 최저학력 기준에 대한 정보는 제공된 데이터에서 명시되어 있지 않습니다. 하지만 일반적으로 한의예과의 입학 요건은 다음과 같습니다:
+1. 고등학교 졸업 자격 또는 법령에 따른 동등 학력을 갖추어야 합니다.
+2. 수능(수학 미적분 또는 기하) 응시는 필수입니다.
+상세한 최저학력기준은 동의대학교 입학처 웹사이트를 참조하시거나, 직접 문의하시는 것이 가장 정확할 것입니다. 필요하다면 [https://ipsi.deu.ac.kr/main.do](https://ipsi.deu.ac.kr/main.do) 링크를 통해 공식 정보를 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D239" t="n">
+        <v>4.830130048718259e-06</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>동의대학교는 수능 최저학력 기준이 없습니다.</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>提供的信息中没有提到具体的关于2024年招生的最低录取分数要求（수능 최저학力基准）。通常情况下，大学会根据各专业的不同设定相应的最低录取标准。对于东国大学来说，具体的最低录取分数要求可能会在学校的官方网站上公布。
+建议您访问东国大学的官方网站或联系学校招生办公室以获取最新的最低录取分数要求信息。网址是：https://ipsi.deu.ac.kr/main.do
+如果您需要了解一般性的指导原则或者过去几年的数据作为参考，可以查看该网站上的相关信息。</t>
+        </is>
+      </c>
+      <c r="D240" t="n">
+        <v>0.0001484256341336792</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>충원합격자 발표 일정은 다음과 같습니다:
+ 1. 1차 충원합격자 발표: 2024년 2월 14일(수) 09:00
+ 2. 2차 충원합격자 발표: 2024년 2월 15일(목) 09:00
+ 3. 3차 이후 충원합격자 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18시까지</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>2024년 2월 15일(목)부터 충원합격자 발표가 시작됩니다. 
+발표 일정은 다음과 같습니다:
+- 2024. 02. 14.(수) 09:00 - 1차 충원 합격자 발표
+- 2024. 02. 15.(목) 09:00 - 2차 충원 합격자 발표
+이후 3차 이후의 충원합격자는 개별 전화 통보 방식으로 발표됩니다 (2024. 02. 15.(목) 19:00 ~ 2024. 02. 20.(화) 18시까지).
+모든 지원자는 이 일정에 따라 합격 여부를 확인해야 합니다.</t>
+        </is>
+      </c>
+      <c r="D241" t="n">
+        <v>0.4522139259148664</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>충원합격자 발표 일정은 다음과 같습니다:
+ 1. 1차 충원합격자 발표: 2024년 2월 14일(수) 09:00
+ 2. 2차 충원합격자 발표: 2024년 2월 15일(목) 09:00
+ 3. 3차 이후 충원합격자 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18시까지</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>2024년 2월 15일(목)부터 3차까지의 충원 합격자 발표가 이루어집니다. 구체적으로:
+- 2024. 02. 14.(수) 09:00 - 1차 충원 합격자 발표
+- 2024. 02. 15.(목) 09:00 - 2차 충원 합격자 발표
+이 외에도 3차 이후의 충원 합격자는 개별 전화 통보 방식으로 발표되며, 시간은 2024. 02. 15.(목) 19:00부터 2024. 02. 20.(화) 18시까지입니다.
+따라서 추가합격자 발표는 2월 중순부터 진행되며, 특히 3차 이후의 합격자는 개별 전화 통보 방식으로 이루어집니다.</t>
+        </is>
+      </c>
+      <c r="D242" t="n">
+        <v>0.3484824230162422</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>2024년 1월 2일(화) 이후 수시모집 등록자의 등록(입학) 포기로 인한 결원은 정시 일반학생전형 모집인원으로 이월하여 추가로 합격자를 선발합니다. 정시모집 모집단위별 등록인원이 모집인원에 미달된 경우에는 그 인원을 추가모집으로 이월하여 모집합니다.</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>2024년 정시모집에서 일부 모집단위는 추가모집이 이루어질 수 있습니다. 구체적으로, 2월 고교 졸업예정자가 당해 연도에 졸업하지 못하는 경우 합격이 취소되며, 이로 인한 결원은 정시&lt;나&gt;군으로 이월하여 추가 합격자를 선발할 수 있습니다. 또한, 수시모집 등록자의 등록(입학) 포기로 인한 결원도 정시 일반학생전형 모집인원으로 이월하여 추가 합격자를 선발합니다.
+따라서, 특정 모집단위에서 추가모집이 이루어질 가능성이 있습니다. 하지만 확실한 정보는 해당 대학의 공식 홈페이지나 입학처와 확인하는 것이 가장 정확할 것입니다.</t>
+        </is>
+      </c>
+      <c r="D243" t="n">
+        <v>0.2585966177811992</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>평생학습자전형에 대한 정보는 다음과 같습니다.  
+모집단위 및 모집인원
+  - 미래융합대학 라이프융합학부
+  - 전형명: 학생부종합(평생학습자전형)
+  - 모집인원: 11명
+ 지원자격
+ - 평생학습자전형: 고교 졸업(예정)자 또는 법령에 의한 동등학력 소지자
+전형요소 반영 비율
+ - 서류: 70%
+ - 면접: 30%
+ 제출서류
+ - 고교 졸업(예정)자:
+  - 고교 학교생활기록부 1부 (학생부 온라인 제공 동의자는 제출할 필요 없음)
+- 검정고시출신자:
+  - 검정고시 합격증서 사본 또는 합격증명서 1부
+  - 검정고시 성적증명서 1부 (온라인 제공 동의자는 제출할 필요 없음)
+  - 학교생활기록부 대체 서류 (제출여부 선택 가능)
+ - 외국고교 졸업(예정)자:
+  - 공증받은 외국고교 졸업(예정)증명서 1부
+  - 공증받은 외국고교 성적증명서 1부
+  - 학교생활기록부 대체 서류(제출여부 선택 가능)
+  - 외국어로 작성된 경우, 원본과 공증받은 한국어 번역본을 함께 제출
+  - 고교 졸업(예정)증명서, 성적증명서는 해당국가의 정부기관으로부터 아포스티유 확인서 또는 해당국가 주재 한국영사관에서 영사 확인을 발급받아 제출(단, 교육부에서 인정한 재외한국학교는 영사확인 없이 증명서 원본 제출 가능)
+  - 만점이 명시된 고교성적 체계자료를 성적증명서 뒤에 첨부
+  - 최종 등록자 중 외국고교 졸업예정자는 졸업 이후 졸업증명서(아포스티유 확인서 또는 영사확인 
+발급)를 2024. 02. 16.(금)까지 추가 제출하여야 합니다.
+제출기간 및 장소
+ - 제출기간: 2024. 01. 03.(수) ~ 01. 12.(금) 17:00까지 도착분에 한함
+ - 제출장소: (우: 47340) 부산광역시 부산진구 엄광로 176, 동의대학교 입학관리팀
+ 추가사항
+ - 검정고시출신자 및 외국고교 졸업(예정)자의 제출서류 중 학교생활기록부 대체 서류는 선택 제출서류로 ‘학교생활기록부 대체 서류’ 양식을 참조.
+ 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>평생학習者轉型是指針對已經完成高中教育或具有同等學力的成年人，提供進一步學習和深造機會的一種招生方式。以下是关于平生学習者转型（平生學習者轉型）的一些关键信息：
+1. **适用对象**：适用于已经完成高中教育或具有同等学力的成年人。
+2. **年龄要求**：没有特定的年龄限制，但通常面向30岁以上的人群。
+3. **招生方式**：
+   - 采用学生综合评价（學生部綜合評價）的方式进行选拔。
+   - 包括提交学校成绩单、个人经历和兴趣等材料，并通过面试来评估申请者的综合素质。
+4. **报名时间**：报名时间为2024年1月3日（星期三）至1月12日（星期五）17:00止，以到达为准。
+5. **提交地点**：提交地址为（邮编：47340），韩国釜山市东区严光路176号，동의대학교 입학관리팀。
+6. **所需材料**：
+   - 高中成绩单1份。
+   - 检定考试合格证书副本或证明书1份。
+   - 检定考试成绩证明书1份（在线提供同意者无需提交）。
+   - 学校生活记录表替代文件（选择性提交，参考47页[学校生活记录表替代文件]格式）。
+7. **注意事项**：
+   - 所有文件原则上需原件提交。特殊情况无法重新获取原件的，可先展示原件后提交复印件，并由本校入学管理团队确认后退回原件。
+   - 最终注册者中，预计毕业的高中学生必须在2024年2月16日（星期五）之前补充提交毕业证明书（附带领事认证或韩国领事馆认证）。
+8. **其他信息**：有关报名、考试和录取的具体细节，请访问学校官方网站或联系招生办公室。</t>
+        </is>
+      </c>
+      <c r="D244" t="n">
+        <v>0.1027449914186136</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>평생학습자전형의 지원자격은 다음과 같습니다
+ - 고교 졸업(예정)자 또는 법령에 의한 동등학력 소지자</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>평생학습자전형의 지원 자격은 다음과 같습니다:
+1. 고등학교 졸업(예정)자 또는 법령에 의한 동등 학력 소지자입니다.
+2. 재직기간이 3년 이상인 자여야 합니다 (2024년 3월 1일 기준).
+3. 지원자격 증빙서류 상으로 증명되는 기간만 산정되며, 중복된 기간은 이중으로 합산하지 않습니다.
+4. 4대 보험 중 1개 이상 가입 사업체 또는 근로기준법 제11조에 따라 상시근로자 5인(사업주 포함) 이상의 사업체에서 근무한 자여야 합니다 (창업·자영업자도 포함).
+5. 군 의무복무 경력도 재직기간으로 인정됩니다.
+6. 국가 또는 지방자치단체 소속 직원이거나, 공공 단체 소속 직원인 경우에도 지원 가능합니다.
+위와 같은 조건을 충족해야 평생학습자전형의 지원 자격을 갖추게 됩니다.</t>
+        </is>
+      </c>
+      <c r="D245" t="n">
+        <v>0.002994058537138721</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>실기고사 대기실 및 입실시간은 2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 조회 가능합니다.</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 실기고사에 대한 정보는 다음과 같습니다:
+1. **체육학과**:
+   - **실기종목**: 제자리 멀리뛰기, 메디신볼 던지기, Z-런
+   - **장소**: 체육관이나 운동장 등 실내외에서 실시될 수 있습니다.
+   - **준비물**: 운동복 및 운동화 (스파이크나 축구화는 불가능하며, 신발바닥에 이물질 가칠 금지)
+   - **기타**: 부상이나 기타 사유로 인해 기권한 경우 최저점수를 받게 됩니다. 각 종목별 2회 반칙 시에도 최저점수를 받습니다.
+2. **레저스포츠학과**:
+   - **실기종목**: 제자리 멀리뛰기, Z-런
+   - **장소**: 실내체육관 등에서 실시됩니다.
+   - **준비물**: 운동복 및 운동화 (특수화는 불가능하며, 신발바닥에 이물질 가칠 금지)
+   - **기타**: 부상이나 기타 사유로 인해 기권한 경우 최저점수를 받게 됩니다. 각 종목별 2회 반칙 시에도 최저점수를 받습니다.
+3. **디자인조형학과**:
+   - **실기종목**: 시각디자인, 산업디자인, 공예디자인 중 택1
+   - **장소**: 예술실이나 작업실 등에서 실시됩니다.
+   - **준비물**: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+   - **기타**: 주제와 화지 크기는 당일 추첨으로 결정되며, 시간은 5시간입니다.
+실기고사는 각 학과별로 다른 장소에서 실시되므로, 해당 학과의 공지사항이나 안내를 확인하여 정확한 장소를 파악하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D246" t="n">
+        <v>6.404726148765005e-06</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>실기고사 대기실 및 입실시간은 2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 조회 가능합니다.</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>체육학과의 실기고사는 다음과 같은 장소에서 진행됩니다:
+- 제자리 멀리뛰기: 해당 장소에서는 이 실기종목을 수행합니다.
+- 메디신볼 던지기: 메디신볼 던지기를 수행하는 장소가 필요합니다.
+- Z-런: Z-런이라는 특정 운동 경로를 따라 달리는 장소에서 진행됩니다.
+각 실기종목은 특별한 장비와 운동복을 착용해야 하며, 신발바닥에 이물질이 가착되지 않도록 주의해야 합니다.</t>
+        </is>
+      </c>
+      <c r="D247" t="n">
+        <v>0.01798742818070179</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>아니요, 수시 충원합격자 발표는 전화로 개별 연락을 하지 않습니다. 최초합격자 및 1차, 2차 충원합격자 발표는 홈페이지를 통해 실시하며, 모든 지원자는 전형 일정에 명시된 합격자 발표일에 합격 여부를 반드시 홈페이지를 통해 확인해야 합니다. 3차 이후 충원합격자 발표 과정에서만 개별 전화 통보가 이루어집니다.</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>3차 이후 충원합격자 발표 과정에서 전화 연락 두절(3회 통화)로 인해 충원합격 통보가 어려운 경우, 충원합격이 되었으나 등록 의사가 없는 등록 포기자로 간주하므로, 충원합격자 발표 기간(2024년 2월 15일(목)~2024년 2월 20일(화))에 전화 연락을 받지 못하는 일이 없도록 유의하시기 바랍니다.
+즉, 일반적으로 별도로 전화를 주지는 않지만, 전화 두절 등의 경우 충원합격이 되었음에도 등록하지 않는다면 등록 포기자로 간주할 수 있습니다. 따라서 해당 기간 동안 전화를 받지 못하는 일이 없도록 유의하시면 좋겠습니다.</t>
+        </is>
+      </c>
+      <c r="D248" t="n">
+        <v>0.2167140932254734</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2023학년도 경찰행정학과 수시모집 결과에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>2023학년도 경찰행정학과의 수시모집 결과에 대한 정보가 제공된 데이터에서 찾을 수 없습니다. 제공된 정보는 주로 2024학년도의 모집요강과 일정에 관한 내용으로, 이전 학년도의 결과나 세부적인 통계는 포함되어 있지 않습니다.
+만약 2023학년도 경찰행정학과 수시모집 결과를 알고 싶다면, 다음과 같은 방법을 추천드립니다:
+1. 동의대학교 입학관리 홈페이지를 방문하여 관련 공지사항을 확인합니다.
+2. 한국교육과정평가원(KEDI) 웹사이트에서 대입 정보를 검색합니다.
+3. 동의대학교 입학처에 직접 문의하거나 전화로 연락합니다.
+이러한 방법들을 통해 가장 정확하고 최신의 정보를 얻으실 수 있을 것입니다.</t>
+        </is>
+      </c>
+      <c r="D249" t="n">
+        <v>0.08401224801229813</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>아니요, 정시모집 지원자는 수능에 응시하지 않으면 지원할 수 없습니다.</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>2024년 동일한 입학전형 방식으로 볼 때, 정시 모집에서는 수능을 응시하지 않은 학생도 일부 전형에서 지원이 가능합니다. 특히 다음과 같은 전형들은 수능 없이 지원할 수 있습니다:
+1. **학생부종합전형**:
+   - **평생학습자전형**
+   - **성인학습자(정원내)전형**
+   - **성인학습자(정원외)전형**
+   - **재직자전형**
+   - **조기취업형계약학과전형**
+이러한 전형들은 주로 학생부와 면접 등을 통해 평가되며, 수능 성적 대신 학생의 학력 및 역량을 중점적으로 검토합니다.
+2. **실기/실적 위주 전형**:
+   - 일부 실기/실적 위주의 전형에서도 수능 없이 지원할 수 있습니다. 예를 들어, 태권도학과와 같은 특수전공에서는 실기 성적이 중요하게 평가됩니다.
+하지만 대부분의 일반학생전형(예: &lt;가&gt;군, &lt;나&gt;군, &lt;다&gt;군)은 수능 성적을 필수적으로 반영하므로 수능 응시는 필수입니다. 
+따라서 정시 모집에서 수능을 응시하지 않은 학생이 지원하고자 한다면, 위와 같은 특별한 전형들을 주의 깊게 살펴보셔야 합니다.</t>
+        </is>
+      </c>
+      <c r="D250" t="n">
+        <v>1.157408945340591e-06</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>네, 고등학교 졸업한지 10년이 지났더라도 정시 지원이 가능합니다. "고교유형별 지원자격" 표에 따르면, 일반고, 자율고, 특수목적고, 특성화고, 영재학교, 기타 학교, 검정고시, 외국고 출신자 모두 정시 지원이 가능합니다. 따라서 고등학교 졸업 시기와 상관없이 지원할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>10년 전에 고등학교를 졸업했다면, 일반적으로 정시 모집에서 지원하기는 어렵습니다. 대부분의 대학은 고등학교 졸업 후 3년 이내에 입학을 목표로 하고 있습니다.
+하지만 일부 특수한 경우가 있을 수 있습니다:
+1. 특정 학과나 전형에서 오랜 시간 경력을 가진 경험을 인정하는 경우가 있습니다.
+2. 평생교육이나 재직자 전형 등 특별한 지원渠道未能生成有效的答案，请尝试提供更多背景信息或直接提问所需帮助的内容。</t>
+        </is>
+      </c>
+      <c r="D251" t="n">
+        <v>0.2052185332989403</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>동의대학교의 2024학년도 정시 일정은 다음과 같습니다
+1. 모집인원 확정 공고
+   - 일정: 2024년 1월 2일(화)
+   - 비고: 입학안내 홈페이지 공고
+2. 원서접수(인터넷)
+   - 일정: 2024년 1월 3일(수) ~ 2024년 1월 6일(토) 마감일 18시까지
+   - 비고: http://ipsi.deu.ac.kr 또는 http://www.uwayapply.com
+3. 서류 제출 (제출서류가 있는 경우)
+   - 일정: 2024년 1월 3일(수) ~ 2024년 1월 12일(금) 마감일 17시까지 도착
+   - 비고: 서류 제출대상 (Ⅳ. 전형별 세부 안내 참조)
+   - 제출방법: 접수사이트에서 우편발송용 표지를 출력하여 부착 후 제출 또는 우편발송
+4. 실기고사
+   - &lt;가&gt;군 실기고사 레저스포츠학과 태권도학과
+     - 일정: 2024년 1월 16일(화)
+     - 비고: 대기실 및 입실시간 안내 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회
+   - &lt;나&gt;군 실기고사 디자인조형학과 (시각디자인, 산업디자인, 공예디자인) 체육학과
+     - 일정: 2024년 1월 17일(수)
+     - 비고: 대기실 및 입실시간 안내 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회
+5. 합격자 발표 및 등록금 납부
+   - 최초 합격자 발표
+     - 일정: 2024년 2월 2일(금) 14:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 최초 합격자 등록
+     - 일정: 2024년 2월 7일(수) ~ 2월 13일(화) (은행마감시간 내)
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 1차 (인터넷) 발표
+     - 일정: 2024년 2월 14일(수) 09:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 1차 (인터넷) 등록
+     - 일정: 2024년 2월 14일(수) 09:00 ~ 16:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 2차 (인터넷) 발표
+     - 일정: 2024년 2월 15일(목) 09:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 2차 (인터넷) 등록
+     - 일정: 2024년 2월 15일(목) 09:00 ~ 16:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 3차 이후 (개별 전화 통보) 발표
+     - 일정: 2024년 2월 15일(목) 19:00 ~ 2024년 2월 20일(화) 18시까지
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 3차 이후 (개별 전화 통보) 등록
+     - 일정: 개별 전화 통보 시 안내
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+추가 유의사항:
+- 최초합격자 및 1차, 2차 충원합격자 발표는 홈페이지를 통해 실시하며, 모든 지원자는 전형일정에 명시된 합격자 발표일에 합격 여부를 홈페이지를 통해 확인해야 합니다. 별도 개별 연락을 실시하지 않으며, 합격 여부 미확인으로 인해 등록하지 못했다 하더라도 등록(입학) 포기자로 간주합니다.
+- 최초 및 충원합격자는 전형일정에 명시된 등록 일정을 참고하여 지정 기일 내에 등록금을 납부해야 하며, 지정 기일 내에 등록금을 납부하지 않는 경우 입학을 포기하는 것으로 간주합니다.</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집의 주요 일정은 다음과 같습니다:
+1. **모집인원 확정 공고**: 2024년 1월 2일 (화)
+2. **원서접수**:
+   - 시작일: 2024년 1월 3일 (수)
+   - 마감일: 2024년 1월 6일 (토) 18시까지
+3. **서류 제출** (필요한 경우):
+   - 시작일: 2024년 1월 3일 (수)
+   - 마감일: 2024년 1월 12일 (금) 17시까지 도착
+4. **&lt;가&gt;군 실기고사**:
+   - 레저스포츠학과, 태권도학과: 2024년 1월 16일 (화)
+   - 디자인조형학과 (시각디자인, 산업디자인, 공예디자인), 체육학과: 2024년 1월 17일 (수)
+5. **&lt;나&gt;군 실기고사**:
+   - 디자인조형학과 (시각디자인, 산업디자인, 공예디자인), 체육학과: 2024년 1월 17일 (수)
+6. **합격자 발표 및 등록금 납부**:
+   - 최초 합격자 발표: 2024년 2월 2일 (금) 14시
+   - 최초 합격자 등록: 2024년 2월 7일 (수) ~ 2월 13일 (화)
+   - 충원 합격자 발표 및 등록: 
+     - 1차: 2024년 2월 14일 (수) 9시
+     - 2차: 2024년 2월 15일 (목) 9시
+   - 3차 이후 충원 합격자 발표 및 등록: 2024년 2월 15일 (목) 19시 ~ 2월 20일 (화) 18시까지
+7. **등록금 납부**:
+   - 지정 기간 내에 등록금을 납부하지 않으면 입학 포기로 간주됩니다.
+이 일정은 일반적으로 동의대학교 정시 모집의 주요 단계를 포함하며, 각 단계별로 중요한 정보와 마감일 등을 확인해야 합니다. 자세한 내용이나 변경사항이 있을 경우 공식 홈페이지 (http://ipsi.deu.ac.kr)를 참조하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="D252" t="n">
+        <v>0.3112560338836797</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 일정은 다음과 같습니다:
+1. 모집인원 확정 공고: 2024년 1월 2일(화)에 입학안내 홈페이지에 공고됩니다.
+2. 원서접수(인터넷): 2024년 1월 3일(수)부터 2024년 1월 6일(토) 18시까지 진행됩니다. 접수는 [입학안내 홈페이지](http://ipsi.deu.ac.kr) 또는 [유웨이 어플라이](http://www.uwayapply.com)에서 가능합니다.
+3. 서류 제출 (제출서류가 있는 경우): 2024년 1월 3일(수)부터 2024년 1월 12일(금) 17시까지 도착해야 합니다. 서류 제출 대상자는 접수 사이트에서 우편발송용 표지를 출력하여 부착 후 제출하거나 우편으로 발송해야 합니다.
+4. 실기고사 일정:
+   - &lt;가&gt;군 실기고사: 레저스포츠학과, 태권도학과는 2024년 1월 16일(화)에 실시됩니다. 대기실 및 입실시간 안내는 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회할 수 있습니다.
+   - &lt;나&gt;군 실기고사: 디자인조형학과(시각디자인, 산업디자인, 공예디자인), 체육학과는 2024년 1월 17일(수)에 실시됩니다. 대기실 및 입실시간 안내는 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회할 수 있습니다.
+5. 합격자 발표 및 등록금 납부:
+   - 최초 합격자 발표: &lt;가&gt;군, &lt;나&gt;군, &lt;다&gt;군 모두 2024년 2월 2일(금) 14:00에 발표됩니다. 발표는 홈페이지에서 개별 조회할 수 있으며, 고지서는 홈페이지에서 출력하거나 입학관리팀에서 수령할 수 있습니다. 등록장소는 학교 지정은행입니다.
+   - 최초 합격자 등록: 2024년 2월 7일(수)부터 2월 13일(화)까지 은행 마감시간 내에 등록해야 합니다.
+   - 충원 합격자 발표 및 등록:
+     - 1차 발표: 2024년 2월 14일(수) 09:00, 등록은 같은 날 09:00~16:00
+     - 2차 발표: 2024년 2월 15일(목) 09:00, 등록은 같은 날 09:00~16:00
+     - 3차 이후 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지 개별 전화 통보, 등록은 개별 전화 통보 시 안내됩니다.
+모든 지원자는 전형일정에 명시된 합격자 발표일에 홈페이지를 통해 합격 여부를 확인해야 하며, 지정 기일 내에 등록금을 납부하지 않으면 입학을 포기하는 것으로 간주됩니다.</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 정시 모집 일정은 다음과 같습니다:
+1. **모집인원 확정 공고**: 2024년 1월 2일 (화)
+   - 입학안내 홈페이지에서 공고가 발표됩니다.
+2. **원서접수(인터넷)**: 2024년 1월 3일 (수) ~ 2024년 1월 6일 (토) 마감일 18시까지
+   - 접수 사이트는 [http://ipsi.deu.ac.kr](http://ipsi.deu.ac.kr) 또는 [http://www.uwayapply.com](http://www.uwayapply.com)를 통해 가능합니다.
+3. **서류 제출 (제출서류가 있는 경우)**: 2024년 1월 3일 (수) ~ 2024년 1월 12일 (금) 마감일 17시까지 도착
+   - 서류 제출 대상은 각 전형별 세부 안내를 참조해야 합니다.
+   - 제출 방법: 접수 사이트에서 우편발송용 표지를 출력하여 부착 후 제출하거나 우편발송 가능합니다.
+4. **&lt;가&gt;군 실기고사 (레저스포츠학과, 태권도학과)**: 2024년 1월 16일 (화)
+   - 대기실 및 입실 시간 안내는 2024년 1월 12일 (금) 14:00 이후에 입학안내 홈페이지에서 확인 가능합니다.
+5. **&lt;나&gt;군 실기고사 (디자인조형학과, 체육학과)**: 2024년 1월 17일 (수)
+   - 대기실 및 입실 시간 안내는 2024년 1월 12일 (금) 14:00 이후에 입학안내 홈페이지에서 확인 가능합니다.
+6. **합격자 발표 및 등록금 납부**:
+   - **최초 합격자 발표**: 2024년 2월 2일 (금) 14:00
+     - 홈페이지에서 개별 조회 가능, 고지서 교부는 홈페이지에서 출력 또는 입학관리팀에서 수령 가능.
+   - **최초 합격자 등록**: 2024년 2월 7일 (수) ~ 2024년 2월 13일 (화) (은행 마감 시간 내)
+     - 홈페이지에서 개별 조회, 고지서 교부는 홈페이지에서 출력 또는 입학관리팀에서 수령 가능.
+   - **충원 합격자 발표 및 등록**:
+     - 1차: 2024년 2월 14일 (수) 09:00
+       - 홈페이지에서 개별 조회, 고지서 교부는 홈페이지에서 출력 또는 입학관리팀에서 수령 가능.
+     - 2차: 2024년 2월 15일 (목) 09:00 ~ 16:00
+       - 홈페이지에서 개별 조회, 고지서 교부는 홈페이지에서 출력 또는 입학관리팀에서 수령 가능.
+     - 3차 이후 (개별 전화 통보): 2024년 2월 15일 (목) 19:00 ~ 2024년 2월 20일 (화) 18시까지
+       - 홈페이지에서 개별 조회, 고지서 교부는 홈페이지에서 출력 또는 입학관리팀에서 수령 가능.
+모든 지원자는 전형 일정에 명시된 합격자 발표일에 합격 여부를 확인해야 하며, 지정 기일 내에 등록금을 납부해야 합니다. 지정 기일 내에 등록금을 납부하지 않는 경우 입학을 포기하는 것으로 간주됩니다.
+위 일정은 일반적인 일정이며, 실제 일정이 변경될 수 있으므로 공식 홈페이지를 통해 최신 정보를 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="D253" t="n">
+        <v>0.6549853952341489</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에서는 수능 성적자료의 온라인 제공에 동의하는 것으로 간주되며, 수능 성적이 요구됩니다. 따라서 수능 미응시자는 지원이 불가능합니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집에서 수능을 미응시한 지원자가 지원할 수 있는 전형은 다음과 같습니다:
+1. **학생부종합(평생학습자전형, 성인학습자(정원내·외)전형, 재직자전형)**: 이들 전형에서는 수능 점수를 요구하지 않으며, 대신 학생부 및 기타 지원 자격 증빙서류 등을 통해 평가됩니다.
+2. **실기/실적(경기실적우수자전형)**: 일부 모집단위에서 실기나 경기 실적을 기반으로 평가되므로 수능 미응시자도 지원 가능합니다.
+3. **학생부교과(농어촌학생전형, 성인학습자(정원외)전형)**: 이들 전형에서도 수능 점수는 요구되지 않으며, 학생부 및 기타 자격 증빙서류를 통해 평가됩니다.
+이러한 전형들은 주로 수능 외의 요소들을 중점적으로 평가하므로 수능 미응시자도 지원할 수 있습니다. 그러나 각 전형별 세부 조건과 요구 사항은 다르므로, 정확한 자격 여부는 해당 전형의 공고를 확인하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D254" t="n">
+        <v>0.04043303670555025</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 충원 합격 차수에 대한 정보가 존재하지않습니다.
+전년도의 전자공학과의 충원 합격은 36명까지 이루어졌습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>2차까지 전자공학과의 충원 합격이 이루어졌습니다. 
+참조할 수 있는 정보는 다음과 같습니다:
+- 가군 수능(일반학생전형), 실기/실적(일반학생전형) 모집단위 및 모집인원 표에서 전자공학과의 모집인원은 34명입니다.
+- 지원자 유의사항 (합격자(최초 및 충원) 발표 및 등록금 납부) 항목에서 다음과 같은 내용이 있습니다:
+"충원 합격자 1차 (인터넷) 발표 / 2024. 02. 14.(수) 09:00"
+"충원 합격자 1차 (인터넷) 등록 / 2024. 02. 14.(수) 09:00~16:00"
+"충원 합격자 2차 (인터넷) 발표 / 2024. 02. 15.(목) 09:00"
+"충원 합격자 2차 (인터넷) 등록 / 2024. 02. 15.(목) 09:00~16:00"
+따라서 전년도에 전자공학과의 충원 합격은 최소 1차와 2차까지 이루어졌습니다.</t>
+        </is>
+      </c>
+      <c r="D255" t="n">
+        <v>0.04060617410687429</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>동의대학교 입학관리팀 연락처는 051-890-4379~89입니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보에서 동의대학교의 연락처 정보를 찾을 수 없습니다. 하지만 지원자 유의사항에 포함된 문구를 통해 (주)유웨이어플라이의 연락처가 주어져 있습니다:
+(주)유웨이어플라이 : 1588-8988 (http://www.uwayapply.com)
+이 번호는 인터넷 원서접수와 관련된 문의에 사용할 수 있는 번호입니다. 동의대학교 입학처의 직접적인 연락처는 제공되지 않았습니다.
+만약 더 정확한 정보가 필요하다면, 공식 홈페이지 (https://ipsi.deu.ac.kr/main.do)를 방문하여 확인해 보시는 것이 좋겠습니다.</t>
+        </is>
+      </c>
+      <c r="D256" t="n">
+        <v>0.05302363622133351</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>3차 이후 충원합격자 발표 과정에서 전화 연락이 두절되어(3회 통화 시도) 충원합격 통보가 어려운 경우, 해당 지원자는 등록 의사가 없는 것으로 간주되어 등록 포기자로 처리됩니다. 따라서 충원합격자 발표 기간(2024년 2월 15일(목)~2024년 2월 20일(화)) 동안 전화 연락을 받을 수 있도록 유의해야 합니다.</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>3차 이후의 충원합격자는 개별 전화 통보 방식으로 발표됩니다. 그러나 전화 통화가 되지 않을 경우, 해당 지원자는 다음과 같은 절차를 따르어야 합니다:
+1. **발표 일정 확인**: 2024년 2월 15일(목)부터 2024년 2월 20일(화)까지의 시간 내에 전화 통보가 이루어집니다.
+2. **홈페이지 조회**: 이 기간 동안 합격 여부를 확인하기 위해 반드시 입학 안내 홈페이지에서 개별적으로 조회해야 합니다.
+3. **고지서 수령**: 홈페이지에서 고지서를 출력하거나, 필요하다면 입학관리팀에서 직접 수령할 수 있습니다.
+4. **등록**: 등록 기간 내에 지정된 학교 지정은행으로 등록금을 납부해야 합니다 (등록금 고지서에 기재된 시간 내).
+만약 전화 통화가 되지 않아도, 지원자가 이 과정을 준수하지 않는 경우 다음과 같은 결과가 발생할 수 있습니다:
+- **등록 포기**: 합격 여부를 확인하지 않고 등록하지 않은 경우에는 등록(입학) 포기가 간주됩니다.
+- **불이익**: 불이익이 발생할 수 있으므로, 반드시 이 과정을 준수해야 합니다.
+따라서 전화 통화가 되지 않더라도, 지원자는 홈페이지를 통해 합격 여부를 확인하고, 지정된 기간 내에 등록금을 납부하는 것이 중요합니다.</t>
+        </is>
+      </c>
+      <c r="D257" t="n">
+        <v>0.05489859107133734</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 제출해야 할 서류는 다음과 같습니다
+6년 과정
+지원자 본인의 가족관계증명서 1부
+지원자 본인, 부, 모의 주민등록초본 각 1부 (총 3부)
+중학교 학교생활기록부 1부
+교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급
+고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+부모가 사망한 경우: 사망한 부 또는 모의 기본증명서 1부 (기본증명서에 ‘사망’이 명시되어 있지 않은 경우 제적등본 1부 추가 제출)
+부모가 이혼한 경우: 친권이 있는 부 또는 모의 혼인관계증명서(상세) 1부, 본인의 기본증명서(상세) 1부 추가 제출
+12년 과정
+지원자 본인의 주민등록초본 1부
+초등학교 학교생활기록부 1부
+중학교 학교생활기록부 1부
+고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+중·고등학교 재학 시 부, 모 모두 농어촌(읍·면)지역에서 거주한 자는 ‘6년과정' 서류 제출 가능
+교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급
+추가 정보
+제출기간: 2024. 01. 03.(수) ~ 01. 12.(금) 17:00까지 도착분에 한함
+제출장소: (우: 47340) 부산광역시 부산진구 엄광로 176, 동의대학교 입학관리팀
+주의사항: 제출서류 미제출자는 불합격 처리됩니다. 
+주민등록초본, 가족관계증명서, 혼인관계증명서, 기본증명서는 주민등록번호 전체가 기재되어 있어야 하며, 주소변동사항이 포함된 서류를 발급받아 제출하여야 합니다.
+상기 서류는 2024년 1월 1일 이후에 발급된 서류에 한해 제출해야 합니다. 
+최종등록자 중 고교 졸업예정자는 졸업 이후 지원자격 증빙서류를 2024. 02. 16.(금)까지 추가 제출하여야 합니다.</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>6년 과정과 12년 과정의 농어촌학생전형 지원 시 각각 다음과 같은 서류를 제출해야 합니다.
+### 6년 과정 (중·고등학교에서 전 교육과정을 이수한 자로서 중·고등학교 재학기간 중 본인 및 부모 모두가 농어촌(읍·면)지역에 거주한 자)
+1. 지원자 본인의 가족관계증명서 1부
+2. 지원자 본인, 부, 모의 주민등록초본 각 1부 (총 3부)
+3. 중학교 학교생활기록부 1부 (교육기관, 공공기관, 무인민원발급기, 인터넷 정부24에서 발급 가능)
+4. 고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자) 
+5. 부모가 사망한 경우, 사망한 부 또는 모의 기본증명서 1부 (기본증명서에 ‘사망’이 명시되어 있지 않은 경우 제적등본 1부)
+6. 부모가 이혼한 경우, 친권이 있는 부 또는 모의 혼인관계증명서(상세) 1부, 본인의 기본증명서(상세) 1부
+### 12년 과정 (부모의 거주지와는 상관없이 지원자 본인이 초·중·고등학교 전 교육과정을 농어촌(읍·면)지역 소재 학교에서 이수하고 거주한 자)
+1. 지원자 본인의 주민등록초본 1부
+2. 초등학교 학교생활기록부 1부 
+3. 중학교 학교생활기록부 1부 
+4. 고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+5. 중·고등학교 재학 시 부, 모 모두 농어촌(읍∙면)지역에서 거주한 자는 '6년과정' 서류제출 가능
+이러한 서류들은 2024년 1월 3일부터 12일까지 제출해야 하며, (우: 47340) 부산광역시 부산진구 엄광로 176, 동의대학교 입학관리팀으로 제출해야 합니다.</t>
+        </is>
+      </c>
+      <c r="D258" t="n">
+        <v>0.6673748208966415</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 12년 과정이 제출해야 할 서류는 다음과 같습니다
+1. 지원자 본인의 주민등록초본 1부
+2. 초등학교 학교생활기록부 1부
+3. 중학교 학교생활기록부 1부
+4. 고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+추가로, 최종등록자라면 다음 서류도 제출해야 합니다
+1. 고교 졸업증명서
+2. 지원자 본인의 주민등록초본 1부 주민등록초본은 고교 졸업 이후 발급된 것이어야 하며, 주소변동사항이 포함된 서류를 발급받아 제출해야 합니다.</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>12년 과정의 농어촌학생전형 지원 시 제출해야 하는 서류는 다음과 같습니다:
+1. 지원자 본인의 주민등록초본 1부
+2. 초등학교 학교생활기록부 1부
+3. 중학교 학교생활기록부 1부
+4. 고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+이러한 서류들은 지원자의 초·중·고등학교 전 교육과정을 농어촌(읍·면)지역 소재 학교에서 이수하였음을 증명하기 위함입니다.</t>
+        </is>
+      </c>
+      <c r="D259" t="n">
+        <v>0.5731995037757203</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 기회균등 전형이라는 전형이 존재하지 않습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>提供的信息中没有明确提到关于正试招生（정시모집）中的低收入机会均等类型招生计划。因此，根据现有信息无法确定是否进行此类招生。
+如果您需要了解具体的招生政策和计划，请访问学校官网或联系招生办公室以获取最准确的信息。通常学校的官方网站会有详细的招生说明和最新政策更新。您也可以直接咨询学校的招生部门以获得更具体的信息。</t>
+        </is>
+      </c>
+      <c r="D260" t="n">
+        <v>0.03219834580007223</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>제공된 데이터에는 수능 최저등급에 대한 구체적인 절사 여부에 대한 정보가 포함되어 있지 않습니다. 따라서, 수능 최저등급에서 사탐 2 과목 평균산출 시 2.5등급이 나올 경우 절사 여부에 대한 정확한 정보를 확인하려면 입학안내 홈페이지(http://ipsi.deu.ac.kr)에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 등급은 절사 처리됩니다. 즉, 평균을 구한 후 소수점 셋째자리에서 절사하여 최종 등급이 결정됩니다.
+예를 들어 사탐 2과목의 평균이 2.5등급이라면, 이는 3등급으로 반영될 것입니다.
+관련된 정보:
+- [다군 수능(일반학생전형) 동점자 처리기준]에서 "등급 평균 산출 시 소수점 셋째자리에서 절사 처리합니다."라고 명시되어 있습니다.
+- [나군 학생부종합(조기취업형계약학과전형) - 정원외 서류평가 영역 및 배점]에서도 "등급 평균 산출 시 소수점 셋째 자리에서 절사 처리합니다."라고 언급되어 있습니다.
+따라서 2.5등급은 3등급으로 반영될 것입니다.</t>
+        </is>
+      </c>
+      <c r="D261" t="n">
+        <v>0.1261406098092472</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>정시 충원 합격자 발표는 3차까지 있으며, 3차 이후에는 개별 전화 통보로 발표됩니다. - 1차 발표: 2024. 02. 14.(수) 09:00 - 2차 발표: 2024. 02. 15.(목) 09:00 - 3차 이후 발표: 2024. 02. 15.(목) 19:00 ~ 2024. 02. 20.(화) 18시까지 3차 이후 발표는 개별 전화 통보로 진행됩니다.</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>3차 이후의 충원합격자를 위한 발표가 있습니다. 구체적으로 다음과 같습니다:
+- 2024년 2월 14일(수) 09:00에 1차 충원 합격자 발표
+- 2024년 2월 15일(목) 09:00에 2차 충원 합격자 발표
+- 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18시까지 3차 이후의 충원합격자를 위한 개별 전화 통보 발표
+따라서 총 3차까지 정시 충원 합격자 발표가 이루어집니다.</t>
+        </is>
+      </c>
+      <c r="D262" t="n">
+        <v>0.4754294282462067</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>제공된 컨텍스트에 따라 e-비즈니스학과(e-비즈니스학과)의 최초 합격자 및 최종 등록생의 평균 점수는 다음과 같습니다:
+- 최초합격자:
+  - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 환산 점수 합: 317.20 (평균)
+  - 영어 등급 3.20 (평균)
+  - 수능 4개 영역 등급 4.17 (평균)
+  - 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 438.60 (평균)
+- 최종 등록 학생:
+  - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 308.58 (평균)
+  - 영어 등급 3.66 (평균)
+  - 수능 4개 영역 등급 4.53 (평균)
+  - 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 426.25 (평균)
+수능 4개 영역 등급이 4.6점이라면 최초 합격자(4.17점)와 최종 등록자(4.53점) 모두 평균을 약간 상회하는 수준입니다. 반드시 합격이 보장되는 것은 아니지만 다른 영역(국어, 수학, 탐구, 영어) 성적이 경쟁력이 있다면 충원 합격(추가모집)을 통해 합격할 가능성이 있습니다. 
+보다 정확한 평가를 위해 총 표준 변환 점수 합과 제공된 평균을 비교하는 것이 좋습니다. 총점이 평균에 근접하거나 그 이상이면 충원 합격을 통해 합격할 가능성이 더 높을 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>提供的信息中没有直接说明e商业学专业的具体录取分数线，因此无法确定一个具体的分数是否能够确保额外的正试录取资格。但是根据一般情况和给定的信息，我们可以进行一些推测：
+1. **总招生计划**：从表中的数据来看，e商业学专业在多军高考（普通学生类型）下的招生名额为7人。
+2. **成绩权重**：根据“多军高考（普通学生类型）成绩占比”表格，所有科目成绩占100%。这意味着你的总分将直接影响录取结果。
+3. **竞争情况**：虽然没有具体列出e商业学专业的往年分数线或今年的预估分数线，但可以推测，由于招生名额有限，竞争会比较激烈。
+4. **其他因素**：除了高考成绩外，还可能有其他因素影响录取，如面试、特长等（尽管这些信息在给定的数据中未明确提及）。
+因此，如果你的e商业学专业高考总分是4.6（假设这里的“4.6”是指标准分），这通常意味着你的成绩处于较低水平。在这种情况下，要确保额外的正试录取资格是比较困难的，除非你所在省份或学校有特别宽松的录取政策，或者该专业的实际招生人数少于计划数。
+建议：
+- **查询具体分数线**：最好直接咨询学校的招生办公室或访问其官方网站获取最新的录取分数线。
+- **了解其他因素**：确保自己满足所有报名条件，并准备好可能需要提交的额外材料（如面试等）。
+- **多渠道申请**：除了正试外，还可以考虑其他类型的入学途径，如提前批、自主招生等。
+如果不确定具体信息，建议访问学校官网或直接联系招生办公室获取最准确的信息。</t>
+        </is>
+      </c>
+      <c r="D263" t="n">
+        <v>0.04041615574352692</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>e비즈니스학과의 최종등록자 데이터를 기준으로 보면, e비즈니스학과의 영어 등급 평균은 3.66이고, 수능 4개 영역 등급 평균은 4.53입니다. 따라서, 현재 정시 등급이 5.3이라면 e비즈니스학과에 합격하기 어려울 수 있습니다. e비즈니스학과의 평균 등급보다 높은 성적을 가지고 있어야 합격 가능성이 높아집니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 e비즈니스학과의 모집인원은 30명이며, 지원 인원과 경쟁률을 고려할 때 정시 등급 5.3으로 최초 합격 가능성은 낮습니다.
+e비즈니스학과는 전형료가 10,000원이고, 모집인원이 제한적입니다. 이 과정에서 지원자의 수능 점수와 등급이 중요한 요소로 작용합니다. 정시 등급 5.3은 상당히 낮은 등급이며, 이는 대체로 학생부교과 전형이나 실기/실적 전형에 더 유리할 것입니다.
+다만, 최초합격 가능성 여부는 다음과 같은 요소들에 따라 달라질 수 있습니다:
+1. 지원자의 수능 점수와 등급: 정시 등급 5.3은 낮은 등급이므로 경쟁률이 높을 가능성이 큽니다.
+2. 학생부 교과성적 및 기타 전형 요소: e비즈니스학과는 종종 학생부 교과성적이 중요한 역할을 하기 때문에, 지원자의 학생부 성적 등 다른 평가 항목이 중요합니다.
+따라서 정시 등급 5.3으로 e비즈니스학과에 최초합격하기는 어렵지만, 전형 요소들이 다양하게 고려되는 경우에도 최종 합격 가능성은 존재할 수 있습니다. 그러나 이는 매우 낮을 것으로 예상됩니다.
+추가적으로, 정시 등급 5.3으로 e비즈니스학과에 지원하는 경우에는 다른 전형(예: 학생부 종합전형)에서도 지원해 보는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D264" t="n">
+        <v>0.08888908088691727</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>e비즈니스학과의 최종등록자 데이터를 기준으로 보면, 충원합격(후보 순위) 31번까지 충원합격 된 것으로 나온다. 따라서, 현재 예비 38번이라면 e비즈니스학과에 예비 합격할 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>为了回答您的问题，我需要了解一些具体信息。根据您提供的信息，“e비즈니스학전공 예비 38번”（即电子商务学专业预录取编号38），但没有提供具体的考试成绩或评价等级等详细信息。
+根据之前的表格内容，我们可以了解到：
+1. **加群一般学生型**：
+   - 国语、数学、英语、社会（历史/道德包含）、科学、韩国史教科书科目总排名等级平均值。
+2. **加群实技/实绩（一般学生型）**：
+   - 实际技能考试成绩占30%，实际业绩70%。
+3. **加群实技/实绩（经比赛优秀者型）**：
+   - 学生教科书（包括出勤记录）30% + 文件（实际业绩）70%。
+4. **加群实技/实绩（竞赛成绩优异者型）**：
+   - 学生教科书18% + 出勤记录12% + 文件（实际业绩）70%。
+5. **加群学生综合（平生学习者型）**：
+   - 申请文件（学生成绩单）70% + 面试30%。
+6. **加群学生综合（在职成人型）**：
+   - 申请文件（学生成绩单）60% + 面试40%。
+请您提供以下信息，以便我能更准确地评估您的情况：
+1. 您的具体考试成绩或等级。
+2. 是否参加了实际技能考试及成绩。
+3. 申请文件中的详细内容和评分情况。
+有了这些具体信息后，我可以帮助您判断预录取编号38是否有可能达到正式录取。</t>
+        </is>
+      </c>
+      <c r="D265" t="n">
+        <v>0.01040585769158715</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 3.44이라면 간호학과에 합격하기 어려울 수 있습니다. 간호학과의 평균 등급보다 높은 성적을 가지고 있어야 합격 가능성이 높아집니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>3.44이라는 GPA는 동의대학교 간호학과의 경쟁률과 입학 기준 점수를 고려할 때, 합격 가능성이 매우 낮다고 볼 수 있습니다.
+동의대학교 간호학과의 최근 입학 성적을 보면 다음과 같습니다:
+- 국어 + 수학 + 탐구(2개) 표준 변환 점수 평균: 3.88 ~ 4.65
+- 영어 등급 평균: 0.31 ~ 1.99
+당신의 GPA가 3.44이므로, 이는 평균 이상의 성적이지만, 동의대학교 간호학과의 입학 기준 점수와 비교하면 상대적으로 낮은 수치입니다.
+따라서, 합격 가능성은 매우 낮다고 판단할 수 있습니다. 그러나 최종 결정을 내리기 위해서는 다음과 같은 요소들을 고려해야 합니다:
+1. 최근 몇 년간의 입학 성적과 경쟁률을 확인합니다.
+2. 개인의 특성화 과목 성적이 높다면, 합격 가능성은 약간 향상될 수 있습니다.
+3. 면접이나 서류 심사에서 우수한 평가를 받는다면, 합격 가능성도 증가할 수 있습니다.
+결론적으로, 현재의 GPA로는 동의대학교 간호학과에 합격하기 어렵다고 판단됩니다. 다른 대학이나 전형을 고려해보시는 것이 좋을 것 같습니다.</t>
+        </is>
+      </c>
+      <c r="D266" t="n">
+        <v>0.112162660802673</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 보면, 평균 영어 등급은 2.34이고,  수능 4개 영역 등급 평균은 3.37입니다. 
+따라서, 현재 정시 등급이 2.52이라면 간호학과의 평균 등급보다 높은 성적을 가지고 있기 때문에 합격 가능성이 높습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>2.52라는 성적을 가지고 동의대학교 간호학과에 최종적으로 합격하기는 어렵다고 보입니다.
+간호학과의 경우, 최종 등록자 표에서 볼 수 있듯이 평균 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합은 489.72로 매우 높습니다. 또한, 영어 등급의 평균도 1.86으로 낮은 편이며, 수능 4개 영역 등급의 평균도 3.12입니다.
+이러한 데이터를 바탕으로 볼 때, 2.52라는 성적은 간호학과의 입학 기준을 크게 미치지 못하는 것으로 보입니다. 그러나 최종 합격 여부는 여러 요인에 따라 결정되므로, 정확한 판단을 위해서는 다음과 같은 점들을 고려해야 합니다:
+1. **개별 지원자의 성적 분포**: 일부 지원자들은 평균보다 낮은 성적을 가지고도 합격할 수 있습니다.
+2. **모집정원과 지원 인원의 비율**: 모집 정원이 적고 지원자가 많으면 경쟁률이 높아지므로, 2.52라는 성적이 더 유리해질 수 있습니다.
+3. **추가 평가 요소**: 일부 학과에서는 서류심사나 면접 등 추가 평가를 통해 합격자를 선발할 수도 있습니다.
+따라서, 정확한 답변을 위해서는 동의대학교 간호학과의 최종 합격자 명단이나 추가적인 지원 자격 요건 등을 확인해 보시는 것이 좋습니다. 또한, 대학 입학 홈페이지나 관계부서에 문의하시면 더 구체적인 정보를 얻으실 수 있습니다.
+추가로, 다른 학과들도 고려해보시는 것도 좋은 방법입니다.</t>
+        </is>
+      </c>
+      <c r="D267" t="n">
+        <v>0.0324120097777547</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 3.7이라면 간호학과의 평균 등급보다 낮은 성적을 가지고 있기 때문에 합격 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>3.7의 성적은 중간적인 점수로, 간호학과의 모집요강을 살펴보아야 합니다. 간호학과는 보통 높은 수능 점수가 요구되므로, 정시 성적이 3.7이라면 합격 가능성은 낮습니다.
+간호학과의 전형 요소를 고려하면 다음과 같은 점들을 주의해야 합니다:
+1. **수능성적**: 간호학과는 보통 높은 수능 점수가 요구되며, 특히 수학과 영어가 중요합니다.
+2. **학생부 성적**: 학생부 교과 성적이 중요한 요소로, 8과목 중 상위 4과목의 성적을 반영받습니다.
+3. **진로선택과목**: 간호 관련 진로 선택 과목의 성적도 중요합니다.
+따라서 정시 성적이 3.7이라면 다음과 같은 조치를 취해볼 수 있습니다:
+1. **수능 점수 향상**: 수능을 다시 준비하여 높은 점수를 얻는 것이 가장 효과적인 방법입니다.
+2. **학생부 보완**: 학생부에서 간호 관련 활동이나 경험을 강조하고, 진로 선택 과목의 성적을 향상시킵니다.
+3. **추천서 및 자기소개서 작성**: 추천서와 자기소개서를 잘 준비하여 간호사로서의 적합성을 강조합니다.
+결론적으로 정시 성적이 3.7이라면 간호학과에 합격하기는 어렵지만, 수능 점수 향상 및 기타 요인들을 최대한 활용한다면 가능성이 있습니다. 자세한 정보는 동의대학교 입학처 웹사이트나 전화로 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="D268" t="n">
+        <v>0.04108527557302211</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 2.58이라면 간호학과의 평균 등급보다 높은 성적을 가지고 있기 때문에 합격 가능성이 높습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 간호학과의 정시 모집요강을 보면, 간호학과는 일반학생전형으로 모집되며, 해당 전형에서는 주로 수능 점수와 학생부 성적 등을 종합적으로 평가합니다. 그러나 정확한 합격 가능성을 판단하기 위해서는 다음과 같은 정보들이 필요합니다:
+1. **모집인원과 지원 인원**: 간호학과의 모집인원과 실제 지원 인원을 확인해야 합니다.
+2. **경쟁률**: 이전 연도의 경쟁률을 참조하면 됩니다. 예를 들어, 2023년의 경우 경쟁률이 어느 정도였는지 확인할 수 있습니다.
+3. **수능 점수와 학생부 성적**: 간호학과의 전형요소 반영비율을 보면, 수능 점수가 중요한 요인 중 하나입니다. 예를 들어, 수능 점수는 40% 이상의 비중을 차지할 수 있습니다.
+4. **학생부 성적**: 학생부 교과성적이 중요합니다. 간호학과에서는 국어, 수학, 영어, 사회(역사/도덕 포함), 과학교과 중 석차등급 상위 8과목을 반영하며, 이 중 최대 2과목이 진로선택과목으로 선택될 수 있습니다.
+5. **기타 요인**: 면접 결과나 특별한 활동 등도 고려될 수 있습니다.
+현재 정보만으로는 정확한 판단이 어렵습니다. 하지만 2.58이라는 점수는 상대적으로 낮은 수준입니다. 이 점수로 간호학과에 합격하기 위해서는 다음과 같은 조건을 충족시켜야 합니다:
+- **고교 졸업(예정)자**의 경우, 1학년 1학기부터 3학년 2학기까지의 성적 중 석차등급 상위 8과목을 반영받습니다.
+- **학생부 교과성적**: 국어, 수학, 영어, 사회(역사/도덕 포함), 과학교과 등에서 좋은 성적을 보여야 합니다.
+따라서, 2.58의 점수로는 합격 가능성이 낮다고 볼 수 있습니다. 하지만 최종 결정은 동의대학교 입학관리팀에서 이루어지므로, 정확한 정보를 얻기 위해서는 동의대학교 입학홈페이지나 전화 문의 등을 통해 확인하는 것이 좋습니다.
+추가적으로, 동의대학교에서는 학생부 종합전형도 운영하고 있으므로, 해당 전형으로 지원해보는 것도 고려해볼 만합니다.</t>
+        </is>
+      </c>
+      <c r="D269" t="n">
+        <v>0.00703600669277901</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>게임공학과의 최종등록자 데이터를 기준으로 보면, 충원합격(후보 순위) 3번까지 충원합격 된 것으로 나온다. 따라서, 현재 예비 7번이라면 게임공학과에 예비 합격할 가능성이 낮다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>ict융합공과대학 게임공학과의 경우 모집인원이 40명이며, 예비번호 7번까지는 추가로 합격자를 선발할 가능성이 있습니다. 하지만 확실한 것은 아닙니다. 최종적으로 결원 발생 여부와 예비후보 순위에 따라 결정됩니다.
+추가적인 정보:
+- 게임공학과의 모집인원은 40명입니다.
+- 예비번호까지 포함하면 추가 합격자가 선발될 수 있습니다.
+결론적으로, 현재로서는 예비번호 7번으로 지원하신다면 추가로 합격할 가능성이 있지만, 확정된 것은 아닙니다. 최종 결과는 입학전형일정에 따른 발표를 통해 확인해야 합니다.</t>
+        </is>
+      </c>
+      <c r="D270" t="n">
+        <v>0.1696088796326903</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>게임공학과의 최종등록자 데이터를 기준으로 보면, 게임공학과의 영어 등급 평균은 3.25이고, 수능 4개 영역 등급 평균은 4.78입니다. 따라서, 현재 정시 등급이 4.16이라면 게임공학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 단, 추가 합격 몇 번을 받을지는 예측하기 어렵습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>4.16이라는 점수는 현재 한국어, 수학, 영어 등급만 반영한 표준점수로 보이는데, 이 점수를 가지고 정확하게 추가 합격 가능 여부를 예측하기는 어렵습니다. 게임공학과의 경우 일반적으로 수능 성적이 중요하지만, 서류평가와 면접 평가도 큰 역할을 합니다.
+다음은 고려해야 할 몇 가지 요소입니다:
+1. **수능 성적**: 동의대학교 게임공학과는 수능 성적이 중요한 요인으로 작용합니다. 4.16이라는 점수는 상대적으로 낮은 편이므로, 추가 합격을 받기 위해서는 다른 평가 항목에서 높은 점수를 받아야 합니다.
+2. **서류평가**: 서류평가 영역에서는 학업역량과 전공적합성 등이 중요합니다. 지원자의 학교생활기록부, 창의적 체험활동, 진로 탐색 활동 등의 내용이 잘 반영되어야 합니다.
+3. **면접평가**: 면접에서도 게임 관련 지식이나 흥미, 열정 등을 잘 보여줘야 합니다.
+4. **경쟁률**: 동의대학교 게임공학과의 경쟁률을 고려해야 합니다. 현재 지원자들의 수능 성적 분포와 서류평가 점수를 바탕으로 예측할 수 있습니다.
+5. **추가 합격 가능성**: 추가 합격 가능 횟수는 모집인원, 지원자의 수능 성적, 서류평가 및 면접 평가 결과 등에 따라 달라질 수 있습니다. 4.16이라는 점수로는 최소 2~3번 정도의 추가 합격 가능성은 있을 것으로 예상되지만, 확실한 것은 아닙니다.
+따라서 정확한 추가 합격 가능 횟수를 예측하기 위해서는:
+- **현재 지원자의 수능 성적 분포와 경쟁률을 확인**합니다.
+- **서류평가 영역에서 높은 점수를 받을 수 있는 준비**를 합니다.
+- **면접에서도 좋은 평가를 받을 수 있도록 준비**를 합니다.
+추가로, 동의대학교 입학 홈페이지나 학교 관계자에게 직접 문의하여 최신 정보와 더 구체적인 조언을 얻는 것이 좋습니다. https://ipsi.deu.ac.kr/main.do 를 참조해 보세요.</t>
+        </is>
+      </c>
+      <c r="D271" t="n">
+        <v>0.025635489397536</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최초등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 2.88이고, 수능 4개 영역 등급 평균은 3.88입니다.
+따라서, 현재 정시 등급이 3.75이라면 경영정보학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 최초합격 가능성은 높아보입니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 경영정보학과의 경우, 정시모집에서 학생부교과성적 반영방법이 다음과 같습니다:
+- **반영과목**: 전 모집단위(한의예과 제외) 12과목 (국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 중 석차등급 상위 12과목)
+- **한의예과**: 국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학, 한문교과 전과목
+이 정보만으로는 경영정보학과에 지원하기 위해서는 학생부 교과성적이 중요합니다. 하지만 정시모집에서 국어, 수학, 영어 등 주요 과목의 성적을 반영하는 것이 일반적입니다.
+**3.75 평균 점수**는 중간 정도의 성적으로 보이며, 경영정보학과에서는 학생부 교과성적이 중요한 요소이므로 3.75의 평균 점수만으로 최초등록을 확신하기는 어렵습니다.
+다음은 고려해야 할 몇 가지 사항입니다:
+1. **전반적인 성적 평균**: 3.75는 중간 정도의 성적이므로, 전반적으로 좋은 성적을 유지하고 있는지 확인해야 합니다.
+2. **교과성적 상위 8과목**: 경영정보학과에서는 주요 과목들의 석차등급이 중요하므로, 국어, 수학, 영어 등 주요 과목의 성적이 높은지 확인해야 합니다.
+3. **학생부 교과성적 반영방법**: 12과목 중 상위 8과목을 선택하여 평균 점수를 계산하면, 이 중에서 3.75 이상이 포함되어야 합니다.
+따라서, 3.75의 평균 점수만으로는 최초등록에 확신할 수 없습니다. 전반적인 성적과 학생부 교과성적을 종합적으로 고려하여 결정해야 합니다. 만약 가능성을 확인하고 싶다면, 동의대학교 입학처 웹사이트나 전화로 문의하시는 것이 좋습니다.
+추가 정보:
+- [동의대학교 입학처 웹사이트](https://ipsi.deu.ac.kr/main.do)
+- 전화: 1588-8988 (주)유웨이어플라이
+위 정보를 참고하여 최종 결정을 내리시길 바랍니다.</t>
+        </is>
+      </c>
+      <c r="D272" t="n">
+        <v>0.02042066110937273</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최초등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 2.88이고, 수능 4개 영역 등급 평균은 3.88입니다. 
+따라서, 현재 정시 등급이 4.2이라면 경영정보학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다. 즉, 최초합격 가능성은 적습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 경영정보학과의 정시 모집에서 국어, 수학, 영어 등 3개 영역의 평균 점수가 4.2라는 정보만으로는 최초등록자로 가능할지 판단하기 어렵습니다. 최초등록자의 자격은 여러 요소에 따라 결정되며, 주요 요인들은 다음과 같습니다:
+1. **모집 인원과 지원 인원**: 모집 인원이 얼마나 되고 지원 인원이 몇 명인지 확인해야 합니다.
+2. **경쟁률**: 경영정보학과의 경쟁률을 알아야 합니다. 경쟁률이 높다면, 4.2라는 점수로는 최초등록자로 선발될 가능성은 낮습니다.
+3. **성적 등급**: 수능 성적이 4.2라면, 이는 대체적으로 좋은 성적입니다. 하지만 다른 모집단위의 성적과 비교해야 합니다.
+4. **모집인원 및 지원 인원**: 각 모집단위별로 모집인원이 얼마나 되고 지원 인원이 몇 명인지 확인해야 합니다. 예를 들어, 모집인원이 10명이고 지원 인원이 20명이라면 경쟁률은 높아지게 됩니다.
+5. **최종등록자와 최초등록자의 성적 분포**: 이전 년도의 최종등록자와 최초등록자의 성적을 비교하여, 현재 점수가 어느 수준인지 판단해야 합니다.
+따라서, 정확한 답변을 위해서는 다음과 같은 정보가 필요합니다:
+- 2024년 경영정보학과의 모집인원
+- 2024년 경영정보학과의 지원 인원
+- 이전 년도의 최종등록자와 최초등록자의 성적 분포
+위 정보를 바탕으로 경쟁률을 계산하고, 현재 점수가 어느 수준인지 판단할 수 있습니다. 만약 이러한 정보가 제공되지 않는다면, 해당 정보를 확인하거나 동의대학교 입학처에 문의하는 것이 좋습니다.
+추가적으로, 동의대학교의 입학 홈페이지 (http://ipsi.deu.ac.kr)에서 최신 정보와 자세한 안내를 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D273" t="n">
+        <v>0.02857301720480674</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최종등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 3.25이고, 수능 4개 영역 등급 평균은 4.31입니다. 따라서, 현재 정시 등급이 5.33이라면 경영정보학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 경영정보학과 일반학생전형에 대한 최종합격자 표를 보면, 수능 점수와 관련된 정보가 제공되지 않았습니다. 하지만 일반적으로 동의대학교의 경영정보학과는 경쟁률이 높은 학과 중 하나입니다.
+수능 4개 영역 (국어 + 수학 + 외국어 + 과학) 등급 평균을 기준으로 판단할 때, 5.33 등급은 상당히 좋은 점수입니다. 그러나 최종합격 여부는 단순한 수능 점수뿐만 아니라 지원자의 전반적인 성적, 학업역량, 그리고 모집단위별 정원 내외 등의 요인에 따라 결정됩니다.
+따라서 5.33 등급의 지원자가 경영정보학과 일반학생전형에서 합격할 수 있는지는 다음과 같은 점들을 고려해야 합니다:
+1. **모집정원**: 모집정원이 얼마나 되는지 확인해야 합니다.
+2. **지원자들의 평균 성적**: 다른 지원자의 평균 등급을 파악하여 비교해야 합니다.
+3. **경쟁률**: 경쟁률이 어느 정도인지 알아보아야 합니다.
+따라서, 정확한 답변을 위해서는 동의대학교 입학처 웹사이트나 전형요강을 참조하거나, 직접 입학처에 문의하는 것이 가장 확실합니다.</t>
+        </is>
+      </c>
+      <c r="D274" t="n">
+        <v>0.07962133093221857</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>바이오응용공학부의 최초등록자 데이터를 기준으로 보면, 바이오응용공학부의 영어 등급 평균은 3.82이고, 수능 4개 영역 등급 평균은 4.74입니다. 
+따라서, 현재 정시 등급이 3.33이라면 바이오응용공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 최초합격 가능성은 있습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>为了回答您的问题，我们需要考虑以下几个因素：
+1. **巴生物应用学部（Bio-applied Engineering Department）的录取标准**：根据提供的信息，巴生物应用学部在多科目能力测试中的录取标准是国语、数学和英语各占25%，探究领域（社会或科学两个科目合计）占25%。加权总分越高，被录取的可能性越大。
+2. **您的成绩情况**：您提到的3.33是指您的综合平均分吗？如果是的话，请提供具体的分数分布，以便更准确地评估。
+假设您的具体分数如下（以满分100分为例）：
+- 国语 (Language and Media): 85
+- 数学 (Mathematics): 75
+- 英语 (English): 65
+- 探究领域 (Exploration Field, 社会或科学两个科目合计): 70
+根据巴生物应用学部的录取标准，计算总分如下：
+\[ \text{总分} = 85 \times 25\% + 75 \times 25\% + 65 \times 25\% + 70 \times 25\% \]
+\[ \text{总分} = (85 + 75 + 65 + 70) \times 25\% \]
+\[ \text{总分} = 295 \times 25\% \]
+\[ \text{总分} = 73.75 \]
+根据上述计算，您的综合成绩为73.75。如果巴生物应用学部的录取分数线高于这个分数，则您有可能被录取。
+**建议：**
+1. 查看巴生物应用学部的具体录取分数线。
+2. 如果分数线较高，请考虑其他可能符合您条件的专业或学校。
+3. 保持关注学校的最新通知和公告，以获取最新的招生信息。
+如果您能提供更具体的分数分布或其他相关信息，我可以为您提供更加准确的评估。</t>
+        </is>
+      </c>
+      <c r="D275" t="n">
+        <v>0.006253420239045497</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>방사선학과의 최종등록자 데이터를 기준으로 보면, 방사선학과의 영어 등급 평균은 2.8이고, 수능 4개 영역 등급 평균은 3.82입니다. 
+따라서, 현재 정시 등급이 4.4이라면 방사선학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 방사선학과에 지원하려면, 정시 등급 4.4 정도로는 경쟁이 매우 치열할 것으로 예상됩니다. 방사선학과는 일반적으로 높은 학업성적을 요구하는 전공 중 하나입니다.
+방사선학과의 모집요강과 과거 입학 성적을 확인해보시면, 정확한 정보를 얻을 수 있습니다. 하지만 대체로 방사선학과는 4.5 이상의 등급이 필요하며, 일부 학생들은 4.6 이상의 고등학교 졸업성적을 보여주고 있습니다.
+당장은 다음과 같은 점들을 확인해보시는 것이 좋습니다:
+1. **방사선학과의 모집요강**: 동의대학교 홈페이지에서 방사선학과의 정확한 모집요강을 확인하세요.
+2. **입학성적 분석**: 과거 입학생들의 성적을 분석해보세요. 이 정보는 대학 홈페이지나 입학처에서 제공할 수 있습니다.
+3. **전형별 평균 등급**: 각 전형별로 평균 등급이 어느 정도인지 확인하세요.
+현재의 성적이 방사선학과에 충분하지 않다고 판단된다면, 다른 전공을 고려해보는 것도 좋은 방법입니다. 동의대학교에는 다양한 학과가 있으므로, 자신의 관심 분야와 적합한 학과를 찾아보시기 바랍니다.
+만약 추가 정보나 도움이 필요하시다면, 동의대학교 입학처에 문의하거나 전문적인 상담을 받는 것도 좋은 방법입니다.</t>
+        </is>
+      </c>
+      <c r="D276" t="n">
+        <v>0.05009189266044498</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>방사선학과의 최종등록자 데이터를 기준으로 보면, 방사선학과의 영어 등급 평균은 2.8이고, 수능 4개 영역 등급 평균은 3.82입니다. 
+따라서, 현재 정시 등급이 2.66이라면 이는 귀하의 성적이 평균보다 높음을 의미합니다. 따라서, 귀하는 방사선학과에 합격할 가능성이 있다고 볼 수 있습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>2.66이라는 GPA는 방사선학과의 경우 상대적으로 낮은 점수입니다. 방사선학과는 보통 과학적 지식과 실무 능력이 중요하기 때문에, 평균 이상의 성적이 요구됩니다.
+방사선학과의 경우 다음과 같은 점들을 고려해야 합니다:
+1. **평균 GPA**: 대부분의 대학에서 방사선학과의 경우 3.0 이상의 GPA가 필요합니다.
+2. **수능 과목**: 생물, 물리 등 과학 관련 과목의 성적이 중요합니다.
+3. **면접 및 실기 평가**: 일부 학교에서는 면접이나 실기 시험을 통해 실무 능력을 평가하기도 합니다.
+2.66 GPA는 다음과 같은 위험성을 가질 수 있습니다:
+1. **합격 가능성 낮음**: 대부분의 대학에서 3.0 이상이 요구되므로, 이 점수로 합격할 확률은 낮을 수 있습니다.
+2. **대체 경쟁자들**: 다른 지원자들이 더 높은 GPA를 가지고 있을 가능성이 큽니다.
+하지만 모든 것이 절대적이지 않으며, 다음과 같은 방법으로 기회를 늘릴 수 있습니다:
+1. **추천서 및 자기소개서**: 강력한 추천서와 잘 작성된 자기소개서로 자신의 장점을 강조할 수 있습니다.
+2. **면접 준비**: 면접에서 자신감 있게 자신의 열정과 적합성을 표현할 수 있도록 준비해야 합니다.
+결론적으로, 2.66 GPA는 방사선학과의 경우 위험한 점수일 수 있지만, 다른 요소들을 잘 활용한다면 합격 가능성은 여전히 있습니다.</t>
+        </is>
+      </c>
+      <c r="D277" t="n">
+        <v>0.04164051568932878</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>제공된 정보에 따르면, 경찰행정학과의 2024학년도 수능(일반학생전형) 최종등록자 평균 수능 4개 영역 등급은 4.12입니다. 귀하의 성적이 3.66이라면, 이는 평균보다 높은 성적입니다. 
+경쟁률이 2020년도에 비해 낮아졌다는 점도 긍정적인 요소로 작용할 수 있습니다. 경쟁률이 낮아지면 합격 가능성이 상대적으로 높아질 수 있기 때문입니다.
+따라서, 귀하의 성적이 평균보다 높고 경쟁률이 낮아진 점을 고려할 때, 희망을 가져도 될 것으로 보입니다. 다만, 최종 결과는 여러 변수에 따라 달라질 수 있으므로, 최선을 다해 준비하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>3.66의 성적을 가지고 경찰행정학전공 농어촌 전형에 지원하셨다면, 합격 가능성은 낮다고 볼 수 있습니다.
+이유는 다음과 같습니다:
+1. 경찰행정학과는 보통 높은 점수를 요구합니다.
+2. 농어촌학생전형의 경우에도 일반적으로 좋은 성적을 필요로 합니다.
+3. 3.66이라는 성적은 대부분의 대학에서 중간적인 성적 수준으로 평가됩니다.
+하지만, 정확한 합격 가능성 판단을 위해서는 다음과 같은 요소들을 고려해야 합니다:
+1. 해당 대학과 전공의 최저 합격 점수를 확인하세요.
+2. 지원자의 전체 경쟁률을 파악해보세요.
+3. 농어촌학생전형 특성화 과정에서 성적 외 요소들도 중요하게 평가되는 경우가 많으므로, 자기소개서와 서류평가 등 다른 부분도 잘 준비하셨는지 확인하세요.
+결론적으로 3.66의 성적만으로는 낮은 확률로 합격할 수 있을 것 같습니다. 하지만 최선을 다해 지원하시고, 서류 및 면접에서도 좋은 평가를 받으시면 가능성을 높일 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D278" t="n">
+        <v>0.2239651015892905</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>귀하께서 지원하신 학과에 따라서 합격될 확률은 달라질 수 있습니다.
+2024년 동의대학교 일반학생전형에서 예비 25번 이상이 합격한 학과는 다음과 같습니다.
+- **영어영문학과**
+- **경영정보학과**
+- **e비즈니스학과**
+- **간호학과**
+- **신소재공학과**
+- **고분자나노공학과**
+- **의생명공학과**
+- **바이오의약공학과**
+- **식품공학과**
+- **산업경영빅데이터공학과**
+귀하께서 지원하신 학과가 위 학과에 포함된다면, 귀하께서 합격하실 확률은 있다고 볼 수 있습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>25위 예비 합격자인 경우, 최종합격의 가능성이 매우 낮다고 볼 수 있습니다. 정시 모집에서 일반적으로 많은 지원자가 경쟁하기 때문에, 예비 합격자는 대부분 최종 합격하지 못합니다.
+다만, 다음과 같은 요소들이 있을 때는 희망을 버리지 않는 것이 좋습니다:
+1. **모집인원 감축**: 3차 충원까지 합격자 발표가 이루어질 수 있으므로, 모집인원이 감소할 경우 기회가 생길 수 있습니다.
+2. **개별 전화 통보**: 3차 이후에 개별 전화로 합격통보를 받을 수도 있습니다.
+3. **성적 및 경쟁률**: 지원자의 성적이 높고, 해당 모집단위의 경쟁률이 낮다면 희망을 유지할 수 있습니다.
+4. **기타 요인**: 특별한 재능이나 경험 등이 있다면 합격 가능성도 있을 수 있습니다.
+현재 상황에서는 최종합격 확률이 매우 낮다고 판단되지만, 모든 가능성을 열어두는 것이 좋습니다. 학교 홈페이지에서 추가 정보를 확인하고, 필요하다면 입학처에 문의해 보세요.</t>
+        </is>
+      </c>
+      <c r="D279" t="n">
+        <v>0.1945139477516673</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 법경찰행정학부라는 학부는 존재하지않습니다.  
+동의대학교 경찰행정학과의 최종등록자와 최초합격자의 평균 성적을 비교하여 안정권과 문 닫고 들어갈 수 있는 성적을 추정할 수 있습니다.
+- **최종등록자 평균 성적:**
+   - 국어 + 수학 + 탐구(2개) 표준 변환 점수 합: 332.86
+   - 영어 등급: 4.00
+   - 수능 4개 영역 등급: 4.12
+   - 수능 4개 영역 표준 변환 점수 합: 447.86
+- **최초합격자 평균 성적:**
+  - 국어 + 수학 + 탐구(2개) 표준 변환 점수 합: 330.71
+  - 영어 등급: 3.14
+  - 수능 4개 영역 등급: 3.87
+  - 수능 4개 영역 표준 변환 점수 합: 452.57
+### 안정권과 문 닫고 들어갈 수 있는 성적 추정
+- **경찰행정학과:**
+  - 안정권: 최초합격자 평균 성적에 근접한 성적 (국어 + 수학 + 탐구(2개) 표준 변환 점수 합 약 331점 이상, 수능 4개 영역 표준 변환 점수 합 약 453점 이상)
+  - 문 닫고 들어갈 수 있는 성적: 최종등록자 평균 성적에 근접한 성적 (국어 + 수학 + 탐구(2개) 표준 변환 점수 합 약 333점 이상, 수능 4개 영역 표준 변환 점수 합 약 448점 이상)
+이 성적을 기준으로 준비하시면 안정권 또는 문 닫고 들어갈 수 있는 성적을 받을 수 있을 것입니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 동의대학교 법경찰행정학부의 정시모집에 대한 정보는 제공된 자료에서 직접적으로 확인하기 어렵습니다. 하지만 일반적인 대입 경향과 동의대학교의 전형 특성을 고려해 추론할 수 있습니다.
+1. **전체적인 성적 평균**: 
+   - 동의대학교는 중등교육 과정에서 국어, 수학, 영어, 사회(역사/도덕 포함), 과학, 한국사를 중심으로 평균성적을 산출합니다.
+   - 이 중 국어, 수학, 영어, 사회, 과학, 한국사의 석차등급 평균이 주요한 기준이 됩니다.
+2. **안정권 성적**:
+   - 안정권으로 간주되는 성적은 대략적으로 전 모집단위에서 국어, 수학, 영어, 사회(역사/도덕 포함), 과학, 한국사의 석차등급 평균이 A등급을 받는 수준입니다.
+   - 예를 들어, 6과목 중 5개 이상이 A등급을 받고 나머지 1개가 B등급 정도면 안정적인 성적을 보여줄 수 있습니다.
+3. **문 닫고 들어갈 수 있는 성적**:
+   - 문 닫고 들어갈 수 있는 성적은 더 높은 등급을 요구합니다.
+   - 이 경우, 6과목 중 4개 이상이 A등급이고 나머지 2개가 B등급 정도의 성적이 필요할 것입니다.
+4. **학과 특성**:
+   - 법경찰행정학부는 사회과학 분야에 속하므로, 사회 과목(역사/도덕 포함)에서 높은 점수를 받는 것이 중요합니다.
+   - 또한, 이 학과의 특성상 국어와 영어에서도 좋은 성적을 보여줘야 합니다.
+5. **추천**:
+   - 정확한 성적 기준은 동의대학교 입학처 홈페이지나 전화로 문의하는 것이 가장 정확합니다.
+   - 또한, 최근 몇 년간의 합격자들의 성적 분포를 참고하여 더 구체적인 목표를 설정할 수 있습니다.
+이러한 정보를 바탕으로 추정하면, 법경찰행정학부에 정시로 들어갈려면 평균성적이 A등급을 받는 수준에서 안정권을 유지하고, B등급을 받는 수준에서는 문 닫고 들어갈 수 있을 것으로 예상됩니다.</t>
+        </is>
+      </c>
+      <c r="D280" t="n">
+        <v>0.3304471725054048</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>24학년도 모집단위에서 보육가정상담학과에서 아동학과로 변경되었습니다. 아동학과에 대해서 대답을 해드리겠습니다.
+	아동학과의 최종등록자 데이터를 기준으로 보면, 아동학과의 영어 등급 평균은 6.33이고, 수능 4개 영역 등급 평균은 7.08입니다. 
+	따라서, 현재 정시 등급이 5.33라면 아동학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다.
+	자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>5.33이라는 등급은 상당히 높은 점수입니다. 그러나 합격 가능성은 여러 요인에 따라 달라질 수 있습니다:
+1. **전체 모집인원**: 보육가정상담학과의 정시 모집인원을 확인해야 합니다.
+2. **경쟁률**: 해당 학과의 경쟁률이 어느 정도인지 파악해야 합니다. 경쟁률이 높다면, 5.33이라는 점수는 좋은 성적일 수 있습니다.
+3. **전형방법**: 동의대학교의 정시 전형 방법을 확인해야 합니다. 예를 들어, 수능성적이 주요한 역할을 하는지, 학생부가 중요한 역할을 하는지 등에 따라 달라질 수 있습니다.
+4. **기타 요인**: 입학사정관제, 면접 등의 추가 평가 항목이 있는 경우도 고려해야 합니다.
+5. **최저합격선**: 최저합격선을 확인하여 5.33이 그 이상인지 확인해야 합니다.
+만약 위의 정보들을 모두 고려하고 5.33이라는 점수가 충분히 높다면, 합격 가능성은 상당히 높습니다. 그러나 정확한 판단을 위해서는 동의대학교 입학처나 관련 홈페이지를 통해 최신 정보를 확인하는 것이 좋습니다.
+추가로, 동의대학교의 입학사정관제나 면접 등 추가 평가 항목이 있다면, 해당 부분에서도 좋은 성적이나 경력을 보여줄 필요가 있습니다.</t>
+        </is>
+      </c>
+      <c r="D281" t="n">
+        <v>0.09999977011100253</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>동의대학교의 충원 합격자 발표 및 등록 일정에 따르면, 충원 합격자 발표는 1차, 2차, 그리고 3차 이후로 나뉘어 진행됩니다. 3차 이후의 충원 합격자 발표는 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지 개별 전화 통보로 이루어집니다.
+예비 12번을 받으셨다면, 앞선 예비 번호를 받은 지원자들이 등록을 포기하거나 다른 대학에 등록하는 경우, 합격 가능성이 있습니다. 충원 합격은 지원자들의 등록 포기 여부에 따라 달라지므로, 정확한 예측은 어렵습니다. 하지만 예비 번호가 12번이라면, 충원 합격 가능성이 아예 없는 것은 아닙니다.
+충원 합격자 발표 기간 동안 전화 통보를 기다리시고, 다른 대학의 등록 상황도 주시하시기 바랍니다. 간절한 마음이 잘 전달되어 좋은 결과가 있기를 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교의 경우, 충원 합격자 발표 및 등록 과정이 상당히 철저하게 진행됩니다. 특히 3차 충원합격자 발표 이후에는 예비후보 순위에 따라 추가로 합격자를 선발할 수 있습니다.
+예비 12번으로 받았다면, 이는 예비 후보 중에서 12번째로 등록해야 할 자리를 의미합니다. 이 경우에도 합격 가능성은 존재하지만, 확실한 것은 아닙니다. 다음과 같은 요인들이 합격 여부에 영향을 미칠 수 있습니다:
+1. **등록금 납부 기일**: 지정된 기간 내에 등록금을 납부해야 합니다. 이 기간이 끝나면 포기자로 간주됩니다.
+2. **예비후보 순위**: 예비 12번으로 받았다면, 앞서 선발된 학생들이 등록하지 않으면 합격할 수 있습니다.
+3. **등록 포기자 발생**: 이전에 발표된 충원합격자 중 일부가 등록을 포기하는 경우, 그 자리를 예비후보 순위에 따라 다시 차지할 수 있습니다.
+4. **모집인원 미달 시 추가 모집**: 정시 모집에서 모집인원이 미달될 경우, 이월된 결원을 통해 추가 합격자를 선발할 수도 있습니다.
+따라서, 예비 12번으로 받았다면 합격 가능성은 있으나, 확실한 것은 아닙니다. 최종 결정은 등록금 납부 기간 내에 등록 여부와 이전 합격자들의 등록 상황에 따라 결정됩니다.
+추가적으로, 동의대학교 입학관리 홈페이지를 통해 실시간으로 합격자 발표 및 등록 정보를 확인하는 것이 좋습니다. 또한, 전화 연락을 받지 못한 경우에도 충원합격이 되었는지 확인해야 합니다.</t>
+        </is>
+      </c>
+      <c r="D282" t="n">
+        <v>0.2491102524420344</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>정시 성적 4.75로 지원 가능한 학과를 알아보겠습니다. 제공된 데이터에서 최종등록자의 수능 4개 영역 등급 평균을 기준으로 분석해보겠습니다.
+### 지원 가능 학과
+- **국어국문학과**: 4.92 (평균)
+- **중어중국학과**: 5.68 (평균)
+- **일본학과**: 4.87 (평균)
+- **영어영문학과**: 5.16 (평균)
+- **문헌정보학과**: 4.82 (평균)
+- **평생교육·청소년상담학과**: 5.22 (평균)
+- **아동학과**: 7.08 (평균)
+- **금융경영학과**: 5.41 (평균)
+- **재무부동산학과**: 5.82 (평균)
+- **무역학과**: 5.18 (평균)
+- **유통물류학과**: 5.45 (평균)
+- **회계학과**: 4.99 (평균)
+- **국제관광경영학과**: 5.41 (평균)
+- **호텔·컨벤션경영학과**: 6.12 (평균)
+- **외식경영학과**: 4.91 (평균)
+- **의료경영학과**: 5.92 (평균)
+- **식품영양학과**: 5.92 (평균)
+- **기계공학과, 로봇자동화공학과, 자동차공학과**: 6.30 (평균)
+- **조선해양공학과**: 6.16 (평균)
+- **신소재공학과, 고분자나노공학과**: 5.78 (평균)
+- **환경공학과, 화학공학과, 응용화학과**: 5.73 (평균)
+- **의생명공학과, 바이오의약공학과, 식품공학과**: 5.41 (평균)
+- **인간공학과, 제품디자인공학과**: 5.72 (평균)
+- **산업경영빅데이터공학과**: 5.27 (평균)
+- **인공지능학과**: 5.25 (평균)
+- **전기공학과, 전자공학과**: 5.37 (평균)
+- **게임공학과**: 4.78 (평균)
+- **영화학과**: 5.04 (평균)
+### 유아교육학과
+유아교육학과의 경우, 최종등록자의 수능 4개 영역 등급 평균이 4.18로 나타나 있습니다. 따라서, 4.75의 성적으로는 유아교육학과에 지원하기 어려울 것으로 보입니다.
+추가적인 정보나 문의사항이 있으시면 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>4.75라는 수능 점수는 상당히 높은 점수입니다. 한국의 대다수 고등학교에서는 90점대 중반에서 100점을 넘는 점수가 많지 않습니다. 따라서 4.75라는 점수는 매우 우수한 성적이라고 볼 수 있습니다.
+유아교육학과에 입학하기 위해서는 주로 다음과 같은 요소들을 고려합니다:
+1. **수능 성적**: 유아교육학과의 경우, 일반적으로 높은 수능 성적이 요구됩니다. 4.75라는 점수는 대부분의 대학에서 매우 경쟁력 있는 성적입니다.
+2. **학생부 종합 평가**: 일부 대학에서는 학생부 종합 평가를 중요하게 고려합니다. 이는 학생의 인성, 학업역량, 전공 적합성 등을 평가하는 것입니다. 따라서 좋은 학생부 성적과 활동 기록이 필요할 수 있습니다.
+3. **면접 및 실기**: 일부 유아교육학과에서는 면접이나 실기를 요구하기도 합니다. 이는 지원자의 인성을 더 잘 파악하고자 하는 경우입니다.
+4. **추천서 등 추가 서류**: 일부 대학에서는 추천서나 자기소개서 등을 요구할 수 있습니다.
+따라서 4.75라는 점수로 유아교육학과에 입학하기는 어렵지 않을 것입니다. 그러나 경쟁률이 매우 높을 수 있으므로, 다음과 같은 조언들이 도움이 될 수 있습니다:
+- **학생부 성적 및 활동**: 좋은 학생부 성적과 다양한 활동 기록을 보유하고 있어야 합니다.
+- **면접 준비**: 면접에서는 지원자의 인성과 유아교육에 대한 열정 등을 잘 표현해야 합니다.
+- **추천서 작성**: 가능하다면 선생님이나 다른 교사의 추천서를 받아볼 수 있습니다.
+결론적으로, 4.75라는 점수로는 유아교육학과에 입학하기 어렵지 않을 것입니다. 그러나 경쟁률이 높으므로 다양한 준비와 노력이 필요합니다.</t>
+        </is>
+      </c>
+      <c r="D283" t="n">
+        <v>0.1921406474673545</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>보육가정상담학과의 최종등록자 데이터를 기준으로 보면, 아동학과의 영어 등급 평균은 6.33이고, 수능 4개 영역 등급 평균은 7.08입니다. 
+따라서, 현재 정시 등급이 4.16라면 아동학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 추가합격까지 생각해서 합격할 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>4.16의 등급을 가지고 보육·가정상담학과(아동학과)로 정시 모집에 지원하는 경우, 합격 가능성은 있습니다만 확실하지 않습니다. 이유는 다음과 같습니다:
+1. **학과 특성**: 보육·가정상담학과는 일반적으로 인문사회과학 분야의 학과로, 수능 등급이 중간 수준에서 좋은 성적을 요구받습니다.
+2. **등급 평균**: 동의대학교의 정시 모집에서는 각 학과별로 등급 평균이 다르게 설정됩니다. 보육·가정상담학과의 경우, 일반적으로 3.5~4.0 정도의 등급을 요구받는 경향이 있습니다.
+3. **경쟁률**: 동의대학교의 정시 모집은 각 학과별로 많은 지원자가 참여하기 때문에, 경쟁률이 높습니다. 따라서 4.16등급으로도 합격할 수 있지만, 확실한 것은 아닙니다.
+4. **추합 점수**: 추합 점수가 중요합니다. 만약 추합 점수가 높다면 합격 가능성은 더 높아집니다. 추합 점수는 수능과 실기(또는 실적)의 점수를 합산한 것입니다.
+5. **추천서 및 자기소개서**: 이들 서류도 중요한 요인입니다. 잘 작성된 추천서와 자기소개서가 합격에 큰 도움이 될 수 있습니다.
+따라서, 4.16등급으로 보육·가정상담학과를 지원한다면:
+- **추합 점수**를 확인하고, 이 점수가 학과별 평균 추합 점수보다 높다면 합격 가능성은 더 높아집니다.
+- **추천서 및 자기소개서**를 잘 준비하여 강점을 부각시킵니다.
+결론적으로, 4.16등급으로도 합격할 수 있지만, 확실한 것은 아닙니다. 정확한 합격 가능성은 동의대학교 입학처에 문의하거나, 해당 학과의 최근 모집 정보를 확인하는 것이 가장 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D284" t="n">
+        <v>0.04144167483843237</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>아니요. 소프트웨어융합학과는 정시로 지원할 수 없습니다.</t>
+        </is>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 정시모집에서 소프트웨어융합학과는 &lt;나&gt;군 실기/실적 위주전형으로 모집됩니다. 이 전형은 학생부교과 성적 30%와 서류(실적) 70%로 평가되며, 정원외에서는 서류(학생부) 60%와 면접 40%로 평가됩니다.
+정확한 등급 기준은 모집단위별로 다를 수 있지만, 일반적으로 동의대학교에서 소프트웨어융합학과에 합격하기 위해서는 다음과 같은 성적을 갖추는 것이 바람직합니다:
+1. **학생부교과성적**:
+   - 국어: 8등급 이상
+   - 수학: 7등급 이상
+   - 영어: 6등급 이상
+2. **서류(실적) 성적**:
+   - 실기/실적 위주전형에서는 학생부교과성적이 주요 평가 기준이므로, 국어, 수학, 영어 등 주요 과목에서 높은 등급을 받는 것이 중요합니다.
+3. **면접 성적**:
+   - 정원외 전형인 경우 면접 점수도 고려되므로, 면접 준비를 철저히 해야 합니다.
+정확한 등급 기준은 동의대학교 입학처 홈페이지나 모집요강을 확인하는 것이 가장 정확합니다. 또한, 최근 몇 년간의 합격자 성적 분석을 통해 더 구체적인 정보를 얻을 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D285" t="n">
+        <v>3.077818466146022e-08</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과는 서류 평가(공동체 역량, 학업 역량, 전공 적합성)과 면접 고사(400점 만점), 
+	학생부 교과성적을 합쳐서 평가합니다. 
+	준비해야하는 서류와 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>『소프트웨어융합학과』에 지원할 때는 면접 점수와 세특(학교생활기록부) 내용 모두 중요하게 평가받습니다. 특히, 이 학과의 특성상 프로그래밍 능력이나 관련 경험을 가진 지원자의 경우 긍정적으로 평가될 수 있습니다.
+서류 준비에 있어서는 주요한 점들은 다음과 같습니다:
+1. **학교생활기록부**: 세특 영역에서 소프트웨어 개발, 알고리즘 이해, 프로그래밍 경험이나 관련 동아리 활동 등을 자세히 기재해야 합니다.
+2. **면접 준비**: 면접에서는 지원자의 문제 해결 능력과 전공적합성에 대해 질문이 많이 나올 수 있으므로, 이와 관련된 경험을 미리 준비해두는 것이 좋습니다.
+따라서, 소프트웨어융합학과를 지원할 때는 세특 내용뿐만 아니라 면접에서도 좋은 성적을 받기 위한 준비가 필요합니다.</t>
+        </is>
+      </c>
+      <c r="D286" t="n">
+        <v>0.06255965379693436</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>동의대학교 소프트웨어공학부의 2024학년도 수능(일반학생전형) 최초합격자의 수능 4개 영역 등급 평균은 4.12입니다. 따라서, 4.08의 성적은 최초합격자의 평균 등급보다 약간 높은 수준입니다. 
+	최초합격자의 평균 등급과 비교적 근접한 성적이므로, 최초합격 가능성은 있지만 확실하지는 않습니다. 추가적인 요소나 경쟁률에 따라 결과가 달라질 수 있습니다. 
+	정확한 정보는 동의대학교 입학처에 문의하는 것이 좋습니다. 추가적인 문의는 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 소프트웨어공학부의 최초합격자를 위한 평균 및 표준 편차를 살펴보겠습니다.
+- **국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합**: 317.87 / 9.08
+- **영어 등급 평균**: 3.77 / 0.67
+- **수능 4개 영역 등급 평균**: 5.06 / 1.22
+주요 점수를 보면, 국어 + 수학 + 탐구(2개)의 표준 변환 점수 합은 317.87이며, 이는 4.08보다 약간 낮습니다. 그러나 동의대학교 소프트웨어공학부의 경쟁률이 매우 높기 때문에, 단순히 점수가 조금 낮다고 해서 불가능하다고 할 수는 없습니다.
+**결론**: 
+- **국어 + 수학 + 탐구(2개) 표준 변환 점수 합**: 317.87 (4.08보다 약간 낮음)
+- **영어 등급 평균**: 3.77 / 0.67
+- **수능 4개 영역 등급 평균**: 5.06 / 1.22
+이러한 점수는 최초합격자로 선발될 가능성이 있지만, 경쟁률이 매우 높기 때문에 확실하지 않습니다. 동의대학교 소프트웨어공학부의 최종 합격자는 다양한 요인에 따라 결정되므로, 정확한 예측은 어렵습니다.
+추가적으로, 지원자의 전반적인 성적과 경쟁력을 고려하여 최선을 다해야 합니다. 또한, 다른 모집단위에서도 관심을 가지고 지원하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D287" t="n">
+        <v>0.1584536269444519</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과의 정시 모집에 대한 구체적인 합격 등급 정보는 제공된 Context에 포함되어 있지 않습니다. 소프트웨어융합학과는 나군 학생부종합(조기취업형계약학과전형)으로도 모집하며, 이 경우 서류 60%와 면접 40%의 비율로 전형요소를 반영합니다.
+정확한 합격 가능성을 확인하기 위해서는 해당 학과의 최근 합격자 평균 등급이나 입시 결과를 참고해야 합니다. 이러한 정보는 대학의 입학처 홈페이지나 모집요강에서 확인할 수 있습니다. 추가적인 정보가 필요하다면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 데이터에서 소프트웨어융합학과의 정시 모집인원은 표에 명시되어 있지 않습니다. 그러나 일반적으로 대학입학에서는 학생부 교과성적 등급이 중요한 평가 요소 중 하나입니다.
+평균 5등급으로는 일부 학과에서 지원 가능성이 있지만, 각 학과의 경쟁률과 모집인원, 그리고 해당 학과의 요구하는 최저 등급 등을 고려해야 합니다. 
+특히 소프트웨어융합학과와 같은 공과대학 학과는 보통 높은 경쟁률을 가지고 있으며, 평균 5등급으로 지원하기 위해서는 다음과 같은 점들을 확인해보시는 것이 좋습니다:
+1. **경쟁률**: 해당 학과의 최신 경쟁률을 확인합니다.
+2. **모집인원**: 모집인원이 얼마나 되는지 파악합니다.
+3. **최저 등급**: 해당 학과에서 요구하는 최저 등급을 확인합니다.
+따라서, 정확한 답변을 위해서는 동의대학교 입학관리 홈페이지나 총장실에서 제공하는 최신 정보를 참고하시거나, 직접 입학처에 문의하시는 것이 가장 확실합니다. 
+추가로, 지원 가능성을 판단하기 위해 다음과 같은 자료도 확인해보시는 것을 추천드립니다:
+- 동의대학교 입학관리 홈페이지
+- 총장실에서 제공하는 최신 모집요강 및 학과별 요구사항
+이러한 정보를 바탕으로 더 정확한 답변을 드릴 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D288" t="n">
+        <v>0.2032080922803865</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>정확한 답변을 위해서는 더 많은 정보가 필요하지만, 제공된 데이터를 바탕으로 대략적인 판단을 할 수 있습니다.
+### 신소재공학과, 분자나노공학과 (공과대학) - 2024학년도
+- **최초합격자 평균 수능 4개 영역 등급**: 5.32
+- **최종등록자 평균 수능 4개 영역 등급**: 5.78
+### 귀하의 성적
+- **수능 4개 영역 등급**: 4.28
+귀하의 성적이 신소재공학과의 최초합격자와 최종등록자의 평균 등급보다 높습니다. 따라서, 동의대학교 신소재공학과에 합격할 가능성이 높다고 판단됩니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>4.28이라는 점수를 가지고 동의대학교 신소재공학과에 지원하는 것은 가능하지만, 확실한 합격을 보장할 수는 없습니다. 이유는 다음과 같습니다:
+1. **모집인원과 지원자 수**: 신소재공학과의 정원은 56명이며, 지원자는 81명입니다. 이는 경쟁률이 높아 보입니다.
+2. **점수 분포**: 표에서 제공된 데이터를 보면, 해당 학과의 국어+수학+탐구(2개) (가산점 포함) 표준 변환 점수 평균은 271.64로, 표준 편차는 19.52입니다. 이는 전체 지원자의 점수가 상대적으로 분산되어 있다는 것을 의미합니다.
+3. **경쟁률**: 경쟁률이 1.45:1이라는 것은 이미 많은 지원자가 높은 점수를 받고 있는 것을 나타냅니다.
+4. **개인 성적**: 4.28이라는 점수는 표준 변환 점수로 보았을 때, 평균보다 약간 높은 수준입니다. 그러나 경쟁률이 높기 때문에, 이 점수만으로 합격을 보장받기는 어렵습니다.
+**추천 사항:**
+- **추가 지원**: 다른 대학이나 전형군에 추가로 지원하는 것이 좋습니다.
+- **면접 준비**: 신소재공학과는 종종 면접 과정이 포함될 수 있으므로, 면접 준비를 철저히 해두세요.
+- **자기소개서 및 서류 준비**: 자기소개서와 기타 서류가 중요하므로, 이 부분도 잘 준비해 두세요.
+결론적으로, 4.28이라는 점수로는 신소재공학과에 합격하기 어렵지만, 추가 지원과 철저한 준비를 통해 가능성을 높일 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D289" t="n">
+        <v>0.1457676543589062</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>아니요. 수능 일반학생전형은 자기소개서가 필요없습니다.</t>
+        </is>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 나군 수능(일반학생전형)에서는 자기소개서 작성은 필수사항이 아닙니다. 이 전형 방식은 주로 수능 점수와 관련된 성적을 기준으로 합격자를 선발합니다.
+다만, 일부 모집단위에서 자기소개서를 제출할 수도 있으므로, 정확한 정보는 동의대학교 입학 홈페이지나 해당 모집요강을 확인하시기 바랍니다. 만약 자기소개서가 필요하다면, 요구 사항과 형식은 해당 모집단위의 전형요강에 명시되어 있을 것입니다.
+일반적으로 수능(일반학생전형)에서는 자기소개서가 아닌 수능 점수와 학교생활기록부 등이 주요 평가 요인으로 작용합니다.</t>
+        </is>
+      </c>
+      <c r="D290" t="n">
+        <v>0.0001143887409190499</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>동의대학교의 수능 정시 모집에서 합격 가능성을 평가하기 위해서는 각 학과의 평균 등급과 표준 편차를 참고하는 것이 중요합니다. 제공된 데이터에 따르면, 각 학과의 수능 4개 영역 등급 평균과 표준 편차가 나와 있습니다. 
+예를 들어, 인문사회과학대학의 국어국문학과의 경우, 최초 합격자의 수능 4개 영역 등급 평균은 4.65이고, 최종 등록자의 경우 4.92입니다. 
+따라서, 수능 4개 영역 등급이 4.5라면, 일부 학과에서는 합격 가능성이 있을 수 있습니다. 그러나, 각 학과마다 요구하는 등급이 다르므로, 지원하고자 하는 학과의 평균 등급과 비교해보는 것이 중요합니다.
+추가 모집의 경우, 경쟁률이 낮아질 수 있으므로 합격 가능성이 높아질 수 있습니다. 하지만, 추가 모집에 대한 정보는 학교의 공식 홈페이지나 입학처에 문의하는 것이 가장 정확합니다.
+자세한 사항은 동의대학교 입학처에 문의하시기 바랍니다. 추가 정보는 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>4.5라는 점수는 수능 표준점수를 의미하는 것 같습니다. 하지만 추가모집에 합격할 확률을 판단하기 위해서는 여러 요소들을 고려해야 합니다:
+1. **모집인원과 지원자 수**: 추가모집의 모집인원이 얼마나 되며, 지원자가 몇 명인지 확인해야 합니다.
+2. **전형방법**: 각 전형별로 다른 산출방법이 적용되므로, 해당 전형의 점수 반영 방식을 파악해야 합니다.
+3. **성적 순위**: 4.5라는 점수가 전체 지원자 중 어느 위치에 있는지 확인해야 합니다. 이는 합격 가능성을 결정하는 중요한 요소입니다.
+4. **기타 평가요소**: 일부 전형에서는 실기, 면접 등 다른 평가요소도 고려될 수 있으므로 이를 고려해야 합니다.
+5. **전년도 데이터**: 과거의 추가모집 결과를 참고하여 현재 상황과 비교해볼 수도 있습니다.
+추가모집에 합격할 확률을 정확히 예측하기 위해서는 위와 같은 정보들을 종합적으로 분석해야 합니다. 만약 구체적인 전형명이나 모집단위, 지원자의 전체 성적 등 추가 정보를 제공해주신다면 더 정확한 답변을 드릴 수 있을 것 같습니다.
+관련 자세한 내용은 동의대학교 입학처 홈페이지나 학교 관계자에게 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D291" t="n">
+        <v>0.3338980177659853</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>신소재학과의 최종등록자 데이터를 기준으로 보면, 신소재공학과의 영어 등급 평균은 5.06이고, 수능 4개 영역 등급 평균은 5.78입니다. 
+따라서, 신소재공학과의 평균 등급보다 높은 성적을 가지고 있으시면 합격 가능성이 올라갑니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보로는 동의대학교 신소재공학부의 정시 모집에서 필요한 등급에 대한 구체적인 정보가 없습니다. 표에서는 신소재공학과와 분자나노공학과를 포함한 모집단위의 평균 점수와 표준 편차 등을 제공하고 있지만, 합격 가능 등급을 직접적으로 알려주지는 않습니다.
+신소재공학부에 지원하려면 다음과 같은 정보를 확인해야 합니다:
+1. 동의대학교 입학 홈페이지에서 최신 모집요강을 확인하세요.
+2. 해당 학과의 정시 모집 기준 점수와 등급을 확인하세요.
+3. 과거 수능 성적 분석 자료를 참고하세요.
+일반적으로 대학별로 정시 모집에서는 국어, 수학, 영어 등의 최소 등급이 요구되며, 일부 학과는 탐구 과목의 등급도 고려할 수 있습니다. 따라서 동의대학교 신소재공학부의 정시 모집 기준을 확인하시기 바랍니다.
+더 자세한 정보를 얻으시려면 동의대학교 입학처 웹사이트나 전화로 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D292" t="n">
+        <v>0.09653216686605959</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>작년 동의대학교 신소재공학과의 최종 등록자 평균 표준 변환 점수는 378.15점이었습니다. 따라서, 귀하의 표준점수 447점은 작년 신소재공학과의 평균 점수보다 훨씬 높습니다. 이 점수라면 신소재공학과에 합격할 가능성이 매우 높다고 할 수 있습니다. 
+추가적인 정보나 문의사항이 있으시면 "https://ipsi.deu.ac.kr/main.do"를 방문해 주시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 정시 모집에서 특정 단과대학의 최종 평균 점수가 작년에 비해 약간 상승하거나 하락하는 것은 가능합니다. 여러 요인들이 이 결과를 초래할 수 있습니다:
+1. **지원자들의 성적 분포 변화**: 작년 지원자의 성적이 올라갔거나 내려갔을 수 있습니다.
+2. **모집 인원의 변동**: 모집 인원이 늘어나거나 줄어들면 평균 점수가 달라질 수 있습니다.
+3. **입학사정관의 평가 변화**: 입학사정관들이 학생들을 평가하는 기준이나 방법에 변화가 있을 수 있습니다.
+447점이 작년 최종 평균 점수보다 약간 낮은 경우에도, 여전히 충분한 가능성은 있습니다. 하지만 확실하게 예측하기는 어렵습니다. 
+현재의 정보만으로는 정확한 예측을 하기 어렵지만, 447점이 작년 최종 평균 점수보다 약간 낮더라도 충분히 경쟁력 있는 점수가 될 수 있습니다.
+추가적으로, 동의대학교 입학사정관들이 평균 점수를 결정할 때 고려하는 요인들을 잘 이해하고, 자신의 강점을 최대한 부각시킬 수 있도록 준비하는 것이 중요합니다.</t>
+        </is>
+      </c>
+      <c r="D293" t="n">
+        <v>0.08187817317539925</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>동의대학교 신소재공학부(일반학생전형)의 최종등록자 데이터를 바탕으로 판단해보겠습니다.
+	신소재공학부의 최종등록자 평균 성적은 다음과 같습니다:
+	- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 평균 271.64, 표준 편차 19.52
+	- 영어 등급: 평균 5.06, 표준 편차 1.22
+	- 수능 4개 영역 등급: 평균 5.78, 표준 편차 0.49
+	- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 평균 378.15, 표준 편차 21.81
+	귀하의 성적이 4.1~4.2등급대라면, 신소재공학부의 최종등록자 평균 성적과 비교했을 때 다소 높은 편입니다. 특히, 영어 등급과 수능 4개 영역 등급에서 차이가 있을 수 있습니다.
+	따라서, 귀하의 성적이 신소재공학부의 최종등록자 평균 성적과 비교했을 때 다소 높으므로, 합격 가능성은 높습니다. 그러나, 최종 합격 여부는 지원자 전체의 성적 분포와 경쟁률에 따라 달라질 수 있습니다.
+	더 자세한 정보나 상담이 필요하다면, 동의대학교 입학처에 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>4.3등급의 수능 성적이 동의대학교에서의 성적 산출 방식에 따라 4.1~4.2 등급으로 변환된다면, 신소재공학과(신소재공학부)의 일반학생전형에서는 합격 가능성이 있습니다만, 확실한 것은 아닙니다.
+다음은 고려해야 할 몇 가지 요인입니다:
+1. **성적 산출 방식**: 동의대학교에서 제공하는 성적 산출 예시와 비교하여 4.1~4.2 등급이 적정 범위 내에 있는지 확인하세요.
+2. **모집인원 및 경쟁률**: 신소재공학과의 모집인원과 지원자 수를 고려해야 합니다. 경쟁률이 높다면, 4.1~4.2 등급으로는 합격하기 어렵습니다.
+3. **전형요소 평가**: 동의대학교의 일반학생전형은 주로 수능 성적을 기반으로 하지만, 일부 모집단위에서는 학생부 교과성적도 고려할 수 있습니다. 따라서 전반적인 학업 역량이 중요합니다.
+4. **기타 요인**: 입학사정관의 평가, 지원자의 특별한 경력 등도 고려될 수 있으므로, 모든 측면을 종합적으로 판단해야 합니다.
+5. **예비 후보 순위**: 모집인원에 미달할 경우 예비후보 순위를 통해 충원될 가능성이 있습니다.
+따라서 4.1~4.2 등급으로는 합격 가능성은 있으나, 확실한 것은 아닙니다. 최종 결정을 내리기 위해서는 동의대학교 입학처 웹사이트에서 공개된 정보와 전형요소를 꼼꼼히 확인하고, 필요하다면 입학사정관과 상담하는 것이 좋습니다.
+추가적으로, 동의대학교의 입학 홈페이지(https://ipsi.deu.ac.kr/main.do)를 방문하여 최신 정보와 자세한 안내를 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="D294" t="n">
+        <v>0.2634914914198748</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>동의대학교 인공지능학과의 수능 일반학생전형 최초합격자 성적은 다음과 같습니다:
+- **모집 인원**: 15명
+- **지원 인원**: 24명
+- **경쟁률**: 1.60
+- **충원 합격 (후보순위)**: 5명
+- **국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합**: 평균 301.87, 표준 편차 12.38
+- **영어 등급**: 평균 4.13, 표준 편차 0.71
+- **수능 4개 영역 등급**: 평균 4.98, 표준 편차 0.25
+- **수능 4개 영역 (가산점 포함) 표준 변환 점수 합**: 평균 415.80, 표준 편차 10.49
+이 성적을 참고하여 준비하시기 바랍니다. 추가적인 정보가 필요하면 "https://ipsi.deu.ac.kr/main.do"를 방문해 주세요.</t>
+        </is>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 인공지능학과의 수능 일반학생전형에 대한 최신 성적 기준을 제공하겠습니다. 이 정보는 예시이며, 실제 모집에서는 변동이 있을 수 있으므로 공식 입학 홈페이지를 확인하시기 바랍니다.
+**인공지능학과 - 2024년 수능 일반학생전형 성적 기준**
+- **국어 표준점수 + 수학 표준점수 + 영어 등급점수 + 탐구 표준점수**
+  - 평균: 396.29
+  - 표준 편차: 0.68
+**상세 성적 산출 예시**
+- **국어 표준점수**: 104
+- **수학 표준점수 (미적분)**: 108
+- **영어 등급 점수**: 5등급 (99)
+- **탐구 표준점수 (물리Ⅰ, 화학Ⅰ)**: 62
+**산출된 성적**
+\[ \frac{104 + 108 + 99 + 62}{4} = 97.5 \]
+따라서, 이 예시에서는 **국어 104점**, **수학(미적분) 108점**, **영어 5등급 (99점)**, **탐구 62점**을 가진 학생의 평균 성적이 396.29점으로 산출됩니다.
+**주의사항**
+- 실제 모집에서는 수학(미적분 또는 기하) 응시자의 경우 수학 표준점수에 0.1을 곱한 점수가 추가로 반영될 수 있습니다.
+- 성적은 탐구 영역의 두 과목 중 상위 점수를 선택하여 합산합니다.
+**추천 전략**
+- 국어와 수학(미적분)에서 높은 점수를 얻는 것이 중요합니다.
+- 영어 등급을 최대한 높이는 것이 필요합니다.
+- 탐구 과목 중 선택할 때, 자신의 강점을 살려서 성적이 높은 과목을 선택하는 것이 좋습니다.
+이 정보를 참고하여 준비하시길 바랍니다. 실제 모집에서는 변동이 있을 수 있으므로 공식 입학 홈페이지에서 최신 정보를 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="D295" t="n">
+        <v>0.1623671770728203</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>동의대학교의 정시 성적을 기준으로 5.27의 성적으로 충원 합격(추합)이 가능한지 확인하기 위해서는 각 학과의 최종 등록자 성적을 비교해보아야 합니다. 아래는 각 학과의 수능 4개 영역 등급 평균과 표준 편차를 기준으로 5.27 성적이 충원 합격 가능한지 확인한 결과입니다:
+1. **인문사회과학대학**
+   - 국어국문학과: 평균 4.92, 표준 편차 0.35
+   - 중어중국학과: 평균 5.68, 표준 편차 0.74
+   - 일본학과: 평균 4.87, 표준 편차 0.13
+   - 영어영문학과: 평균 5.16, 표준 편차 0.66
+   - 문헌정보학과: 평균 4.82, 표준 편차 0.33
+   - 평생교육·청소년상담학과: 평균 5.22, 표준 편차 0.29
+   - 아동학과: 평균 7.08, 표준 편차 0.56
+   - 유아교육과: 평균 4.18, 표준 편차 0.25
+   - 광고홍보학과: 평균 4.47, 표준 편차 0.18
+   - 미디어커뮤니케이션학과: 평균 4.29, 표준 편차 0.23
+   - 법학과: 평균 4.27, 표준 편차 0.27
+   - 경찰행정학과: 평균 4.12, 표준 편차 0.18
+   - 소방방재행정학과: 평균 4.43, 표준 편차 0.40
+   - 행정학과: 평균 4.36, 표준 편차 0.33
+   - 사회복지학과: 평균 4.69, 표준 편차 0.23
+2. **상경대학**
+   - 금융경영학과: 평균 5.41, 표준 편차 0.52
+   - 재무부동산학과: 평균 5.82, 표준 편차 1.25
+   - 무역학과: 평균 5.18, 표준 편차 0.50
+   - 유통물류학과: 평균 5.45, 표준 편차 0.52
+   - 경영학과: 평균 4.69, 표준 편차 0.22
+   - 회계학과: 평균 4.99, 표준 편차 0.41
+   - 경영정보학과: 평균 4.31, 표준 편차 0.23
+   - e비즈니스학과: 평균 4.53, 표준 편차 0.36
+   - 국제관광경영학과: 평균 5.41, 표준 편차 0.56
+   - 호텔·컨벤션경영학과: 평균 6.12, 표준 편차 0.77
+   - 외식경영학과: 평균 4.91, 표준 편차 0.28
+3. **의료보건생활대학**
+   - 간호학과: 평균 3.37, 표준 편차 0.29
+   - 임상병리학과: 평균 4.15, 표준 편차 0.12
+   - 치위생학과: 평균 4.18, 표준 편차 0.20
+   - 방사선학과: 평균 3.82, 표준 편차 0.20
+   - 의료경영학과: 평균 5.92, 표준 편차 1.08
+   - 물리치료학과: 평균 3.62, 표준 편차 0.15
+   - 식품영양학과: 평균 5.92, 표준 편차 1.06
+4. **한의과대학**
+   - 한의예과(수학&lt;미적분/기하&gt;): 평균 1.21, 표준 편차 0.09
+   - 한의예과(수학&lt;확률과통계&gt;): 평균 1.20, 표준 편차 0.05
+5. **공과대학**
+   - 기계공학과, 로봇자동화공학과, 자동차공학과: 평균 6.30, 표준 편차 1.1
+   - 조선해양공학과: 평균 6.16, 표준 편차 1.00
+   - 신소재공학과, 분자나노공학과: 평균 5.78, 표준 편차 0.49
+   - 건축학과(5년제), 건축공학과, 토목공학과, 도시공학과: 평균 4.69, 표준 편차 0.25
+   - 환경공학과, 화학공학과, 응용화학과: 평균 5.73, 표준 편차 0.57
+   - 의생명공학과, 바이오의약공학과, 식품공학과: 평균 5.41, 표준 편차 0.65
+   - 인간공학과, 제품디자인공학과: 평균 5.72, 표준 편차 0.73
+   - 산업경영빅데이터공학과: 평균 5.27, 표준 편차 0.43
+6. **ICT융합공과대학**
+   - 컴퓨터공학과: 평균 4.29, 표준 편차 0.16
+   - 소프트웨어공학부: 평균 4.49, 표준 편차 0.30
+   - 인공지능학과: 평균 5.25, 표준 편차 0.35
+   - 전기공학과, 전자공학과: 평균 5.37, 표준 편차 0.60
+   - 디지털콘텐츠학과: 평균 4.47, 표준 편차 0.24
+   - 게임공학과: 평균 4.78, 표준 편차 0.20
+   - 영화학과: 평균 5.04, 표준 편차 0.76
+7. **예술디자인체육대학**
+   - 패션디자인학과: 평균 4.46, 표준 편차 0.31
+위의 정보를 바탕으로, 5.27의 성적으로 충원 합격이 가능한 학과는 다음과 같습니다:
+- 인문사회과학대학: 중어중국학과, 영어영문학과, 평생교육·청소년상담학과, 아동학과
+- 상경대학: 금융경영학과, 재무부동산학과, 무역학과, 유통물류학과, 호텔·컨벤션경영학과, 외식경영학과
+- 의료보건생활대학: 의료경영학과, 식품영양학과
+- 공과대학: 기계공학과, 로봇자동화공학과, 자동차공학과, 조선해양공학과, 신소재공학과, 분자나노공학과, 환경공학과, 화학공학과, 응용화학과, 의생명공학과, 바이오의약공학과, 식품공학과, 인간공학과, 제품디자인공학과, 산업경영빅데이터공학과
+- ICT융합공과대학: 인공지능학과, 전기공학과, 전자공학과, 영화학과
+위 학과들은 5.27의 성적으로 충원 합격이 가능할 것으로 보입니다. 더 자세한 정보는 동의대학교 입학처에 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>5.27이라는 점수는 정확한 수능 점수가 맞나요? 만약 국어, 수학(미적분/기하), 영어 등급, 탐구 과목의 표준점수 등을 포함한 전체 성적이 5.27이라면, 이 점수로 동의대학교의 정시 모집단위 중 일부는 가능할 수 있습니다.
+다군 (일반학생전형)의 경우, 수능 4개 영역(국어, 수학, 영어, 탐구) 중 상위 3개 영역의 표준점수 및 등급 점수를 합산한 점수로 평균을 내는 방식입니다. 따라서 국어와 수학, 영어 등급이 좋은 성적이라면 충분히 가능할 수 있습니다.
+예를 들어:
+- 국어 5등급
+- 수학(미적분/기하) 4등급
+- 영어 6등급 (107점)
+- 탐구 2개 과목의 표준점수 합산
+이 경우, 상위 3개 영역을 선택하여 평균 점수를 계산하면 가능성이 있습니다.
+하지만 정확한 판단을 위해서는:
+1. 해당 모집단위의 수능 성적 산출 방법을 확인해야 합니다.
+2. 탐구 과목의 표준점수와 등급 점수를 포함하여 전체 성적이 어떻게 평균화되는지 계산해야 합니다.
+따라서, 정확한 정보를 제공하기 위해서는:
+1. 모집단위를 알려주시기 바랍니다.
+2. 전체 수능 성적을 알려주시면 더 정확한 판단이 가능합니다.
+추후에 추가 정보가 있으면 답변을 수정하겠습니다.</t>
+        </is>
+      </c>
+      <c r="D296" t="n">
+        <v>0.08631023205035419</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>소프트웨어공학부의 최종등록자 데이터를 기준으로 보면, 소프트웨어공학부의 영어 등급 평균은 3.77이고, 수능 4개 영역 등급 평균은 4.49입니다. 
+따라서, 현재 정시 등급이 4.2라면 소프트웨어공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>4.2라는 점수는 다군 수능(일반학생전형)에서의 성적이므로, 이 점수만으로 정확한 판단을 내리기는 어렵습니다. 하지만, 교과 성적에 대한 정보가 더 있으면 좀 더 구체적인 답변이 가능할 것입니다.
+교과 성적은 소프트웨어공학부 모집단위의 수능 반영 영역 중 하나로 가산점이 주어지므로, 좋은 교과 성적이 있다면 합격 가능성은 높아질 수 있습니다. 특히, 소프트웨어공학부는 컴퓨터과학 및 관련 분야에 대한 강한 배경을 필요로 하기 때문에, 관련 과목의 고득점을 얻었다면 이점이 있을 것입니다.
+다군 수능(일반학생전형)에서 소프트웨어공학부 모집단위의 수능 반영 영역은 다음과 같습니다:
+- 국어 (화법과작문 또는 언어와매체): 25%
+- 수학 (미적분 또는 기하): 25% (응시자에 한해 10% 가산점)
+- 영어: 25%
+- 탐구 (사회탐구 또는 과학탐구 - 2개 과목 합): 25%
+따라서, 수학과 탐구 영역에서 좋은 성적을 받았다면 이점을 활용할 수 있습니다.
+추가적으로, 동의대학교의 정시 모집요강에 따르면:
+- &lt;나&gt;군 실기/실적(경기실적우수자전형)에서는 학생부교과 18% + 출결 12% + 서류 (실적) 70%로 평가됩니다.
+- &lt;나&gt;군 학생부종합(조기취업형계약학과전형)에서는 서류 (학생부) 60% + 면접 40%로 평가됩니다.
+따라서, 교과 성적을 잘 활용하여 합격 가능성을 높일 수 있습니다. 하지만, 최종 결정은 입학사정관의 심사 결과에 따라 달라질 수 있으므로, 정확한 정보를 얻기 위해서는 동의대학교 입학처 웹사이트나 전화로 문의하는 것이 좋습니다.
+추가적으로, 동의대학교의 학과별 모집인원과 교직 인증 여부 등을 확인하여 더 구체적인 조언을 받으시는 것도 도움이 될 것입니다.</t>
+        </is>
+      </c>
+      <c r="D297" t="n">
+        <v>0.01661110729188933</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>화학환경공학부의 최종등록자 데이터를 기준으로 보면, 화학환경공학부의 영어 등급 평균은 4.82이고, 수능 4개 영역 등급 평균은 5.73입니다. 
+따라서, 현재 정시 등급이 3.92라면 화학환경공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 추가합격까지 생각해서 합격할 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>3.92라는 점수를 가지고 화학환경공학부(화학공학과, 환경공학과, 응용화학과)의 정시 일반학생전형에 합격 가능성은 다음과 같이 판단됩니다:
+1. **성적 기준**: 
+   - 화학환경공학부는 가군(일반학생전형)으로 분류되며, 성적 산출 방법은 국어 표준점수 + 수학 표준점수 + 영어 등급점수 + 탐구 표준점수입니다.
+2. **성적 점수 해석**:
+   - 3.92는 대략적으로 수능 과목의 표준점수를 의미할 수 있습니다.
+   - 예를 들어, 국어 100점, 수학 85점, 영어 4등급(131점), 탐구 70점 등이 합쳐져서 3.92가 나오는 경우가 있을 수 있습니다.
+3. **합격 가능성**:
+   - 화학환경공학부의 정시 일반학생전형은 성적 기준을 충족해야 합니다.
+   - 현재 제공된 정보만으로는 정확한 합격 가능성을 판단하기 어렵습니다. 각 대학별로 최소 합격 점수나 경쟁률 등이 다르기 때문입니다.
+4. **추가 정보 필요**:
+   - 해당 대학의 정시 모집요강을 확인하여, 화학환경공학부의 정시 일반학생전형에 대한 최소 성적 기준을 파악해야 합니다.
+   - 경쟁률이나 합격선 등을 고려하여 판단해야 합니다.
+따라서, 3.92라는 점수만으로는 확실한 결론을 내리기 어렵습니다. 정확한 정보를 얻기 위해서는 해당 대학의 공식 모집요강을 확인하시거나, 입학처에 문의하시는 것이 좋겠습니다.</t>
+        </is>
+      </c>
+      <c r="D298" t="n">
+        <v>0.06482968674835583</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>동의대학교 화학환경공학부의 수능 일반학생전형 최초합격자 데이터를 바탕으로 판단해보겠습니다.
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합 평균: 276.61
+- 영어 등급 평균: 4.70
+- 수능 4개 영역 등급 평균: 5.59
+- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합 평균: 385.99
+귀하의 성적 4.25는 최초합격자의 평균값보다 높으므로 합격 가능성이 높은 것으로 판단됩니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 동의대학교 화학환경공학과는 공과대학에 속하며, 해당 학과는 수능(일반학생전형)을 통해 모집합니다.
+수능(일반학생전형)에 지원하기 위해서는 다음과 같은 절차를 따르셔야 합니다:
+1. **원서접수**: 2024년 1월 3일부터 6일까지 원서를 접수해야 합니다.
+2. **제출서류**: 서류 제출이 필요하며, 이때 학생부 온라인 제공 동의가 필요합니다.
+3. **수능 성적**: 수능 성적이 필요합니다.
+당신이 말씀하신 정시 성적 4.25는 일반적으로 수능 점수를 의미하는 것으로 보입니다. 하지만 정확한 수능 성적은 국어, 수학, 영어 등 각 과목의 표준점수와 탐구 과목의 등급을 포함해야 합니다.
+화학환경공학과의 모집요강을 확인하시고, 해당 학과가 요구하는 수능 반영 비율과 가산점을 잘 이해하신 후에 지원하실 것을 권장드립니다. 
+**주의사항:**
+- **수능 성적**: 정시 성적이 아닌 실제 수능 성적을 확인하셔야 합니다.
+- **모집요강**: 동의대학교 공과대학 화학환경공학과의 최신 모집요강을 확인하시고, 해당 학과가 요구하는 수능 반영 비율과 가산점을 잘 이해하십시오.
+만약 추가 정보나 자세한 안내가 필요하다면 [동의대학교 입학정보 홈페이지](https://ipsi.deu.ac.kr/main.do)를 참조하거나 대학 관계자에게 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="D299" t="n">
+        <v>0.1371533634269731</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>영화학과의 2024학년도 수능(일반학생전형) 최종등록자의 평균 성적을 보면 다음과 같습니다:
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 286.77 (표준 편차: 17.29)
+- 영어 등급: 3.66 (표준 편차: 1.24)
+- 수능 4개 영역 등급: 5.04 (표준 편차: 0.76)
+- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 404.43 (표준 편차: 27.09)
+이를 통해, 귀하의 정시 성적이 4.2정도라면 영화학과에 합격할 가능성이 존재한다고 판단됩니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>4.2의 성적을 가지고 영화학과를 지원하셨다면, 합격 가능성은 낮을 것으로 예상됩니다. 일반적으로 동의대학교의 정시전형에서 영화학과는 실기와 서류 평가가 함께 이루어지며, 수능 점수보다는 실기 능력과 관련된 면접이나 서류 평가가 더 중요하게 작용합니다.
+영화학과의 경우, 실기 평가는 시범 및 실기 종목을 통해 평가되는데, 이 부분이 주요 평가 요소입니다. 따라서 수능 점수보다는 실기 능력과 관련된 준비가 중요합니다.
+하지만 정확한 합격 가능성은 다음과 같은 요인들에 따라 달라질 수 있습니다:
+1. **실기 성적**: 실기 부분에서 좋은 평점을 받았다면, 이는 큰 가산점이 될 수 있습니다.
+2. **서류 평가**: 학교생활기록부와 자기소개서 등 서류 평가에서도 긍정적인 점수를 받은 경우, 전체적으로 더 높은 점수를 얻을 수 있습니다.
+3. **경쟁률**: 현재의 경쟁률과 지원자들의 실력 분포에 따라 달라질 수 있습니다.
+따라서, 실기 준비와 서류 작성에 집중하시고, 학교에서 제공하는 실기 준비 가이드를 참고하여 최선을 다해 준비하시는 것이 중요합니다. 또한, 동의대학교 입학 홈페이지나 관계부서에 문의하여 자세한 정보를 얻는 것도 도움이 될 것입니다.
+만약 더 구체적인 조언이 필요하다면, 동의대학교 입학관리팀에 직접 문의하시거나, 학교에서 제공하는 지원자 상담 서비스를 이용하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D300" t="n">
+        <v>0.1026005369723079</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>면접 절차는 다음과 같습니다:
+1. 대기실 입실
+2. 신분 확인
+3. 고사장 앞 이동
+4. 고사장 입실
+5. 지원동기 및 학업계획 발표
+6. 학업역량, 전공적합성 관련 공통문항 발표 및 질의응답
+7. 기타 질의응답(제출서류 진위 여부 등)
+8. 퇴실</t>
+        </is>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>以下是翻译内容：
+面试流程如下：
+1. 进入候考室
+2. 身份确认
+3. 移动到考场前
+4. 进入考场
+5. 发表个人志愿动机及学业计划
+6. 讨论与专业相关的能力和匹配性相关的一般问题并回答质询
+7. 其他质询（提交文件的真实性等）
+8. 离场
+请参考以上流程进行准备。如果有其他具体问题，可以继续提问。</t>
+        </is>
+      </c>
+      <c r="D301" t="n">
+        <v>0.2451864965576934</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>GPT-4o-mini Average</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D302" t="n">
+        <v>0.3506076862523008</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>Google Gemma-2-9b-it Average</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D303" t="n">
+        <v>0.2769069369168778</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct Average</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D304" t="n">
+        <v>0.1785334365423576</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
           <t>Total Average</t>
         </is>
       </c>
-      <c r="B204" t="inlineStr">
+      <c r="B305" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="C204" t="inlineStr">
+      <c r="C305" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="D204" t="n">
-        <v>0.3137573115845893</v>
+      <c r="D305" t="n">
+        <v>0.2686826865705121</v>
       </c>
     </row>
   </sheetData>
